--- a/data/processed/fortune100data_analysis2.xlsx
+++ b/data/processed/fortune100data_analysis2.xlsx
@@ -389,7 +389,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>expenses</t>
+          <t>profit_margin</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -444,7 +444,7 @@
         <v>13673</v>
       </c>
       <c r="E2" t="n">
-        <v>559081</v>
+        <v>0.0238723780191845</v>
       </c>
       <c r="F2" t="n">
         <v>2.4</v>
@@ -482,7 +482,7 @@
         <v>33364</v>
       </c>
       <c r="E3" t="n">
-        <v>436458</v>
+        <v>0.07101412875514557</v>
       </c>
       <c r="F3" t="n">
         <v>21.7</v>
@@ -520,7 +520,7 @@
         <v>94680</v>
       </c>
       <c r="E4" t="n">
-        <v>271137</v>
+        <v>0.2588179335569424</v>
       </c>
       <c r="F4" t="n">
         <v>33.3</v>
@@ -558,7 +558,7 @@
         <v>7910</v>
       </c>
       <c r="E5" t="n">
-        <v>284201</v>
+        <v>0.02707874746243722</v>
       </c>
       <c r="F5" t="n">
         <v>8.699999999999999</v>
@@ -596,7 +596,7 @@
         <v>17285</v>
       </c>
       <c r="E6" t="n">
-        <v>270312</v>
+        <v>0.06010146141997309</v>
       </c>
       <c r="F6" t="n">
         <v>11.8</v>
@@ -634,7 +634,7 @@
         <v>89795</v>
       </c>
       <c r="E7" t="n">
-        <v>186299</v>
+        <v>0.3252334349895326</v>
       </c>
       <c r="F7" t="n">
         <v>12.5</v>
@@ -674,7 +674,7 @@
         <v>76033</v>
       </c>
       <c r="E8" t="n">
-        <v>181604</v>
+        <v>0.2951167728237792</v>
       </c>
       <c r="F8" t="n">
         <v>41.2</v>
@@ -714,7 +714,7 @@
         <v>4539</v>
       </c>
       <c r="E9" t="n">
-        <v>233689</v>
+        <v>0.01905317594909079</v>
       </c>
       <c r="F9" t="n">
         <v>3.1</v>
@@ -754,7 +754,7 @@
         <v>5007</v>
       </c>
       <c r="E10" t="n">
-        <v>190922</v>
+        <v>0.02555517559932425</v>
       </c>
       <c r="F10" t="n">
         <v>17.5</v>
@@ -794,7 +794,7 @@
         <v>5365</v>
       </c>
       <c r="E11" t="n">
-        <v>168713</v>
+        <v>0.03081951768747343</v>
       </c>
       <c r="F11" t="n">
         <v>8.5</v>
@@ -834,7 +834,7 @@
         <v>61271</v>
       </c>
       <c r="E12" t="n">
-        <v>106817</v>
+        <v>0.3645173956498977</v>
       </c>
       <c r="F12" t="n">
         <v>17.5</v>
@@ -874,7 +874,7 @@
         <v>16433</v>
       </c>
       <c r="E13" t="n">
-        <v>134724</v>
+        <v>0.1087147799969568</v>
       </c>
       <c r="F13" t="n">
         <v>14.4</v>
@@ -914,7 +914,7 @@
         <v>2542</v>
       </c>
       <c r="E14" t="n">
-        <v>146037</v>
+        <v>0.01710874349672565</v>
       </c>
       <c r="F14" t="n">
         <v>6.5</v>
@@ -954,7 +954,7 @@
         <v>6104</v>
       </c>
       <c r="E15" t="n">
-        <v>132535</v>
+        <v>0.04402801520495676</v>
       </c>
       <c r="F15" t="n">
         <v>13.8</v>
@@ -994,7 +994,7 @@
         <v>1655</v>
       </c>
       <c r="E16" t="n">
-        <v>136233</v>
+        <v>0.01200249477837085</v>
       </c>
       <c r="F16" t="n">
         <v>4.1</v>
@@ -1034,7 +1034,7 @@
         <v>22065</v>
       </c>
       <c r="E17" t="n">
-        <v>111548</v>
+        <v>0.1651411165081242</v>
       </c>
       <c r="F17" t="n">
         <v>4.1</v>
@@ -1074,7 +1074,7 @@
         <v>48334</v>
       </c>
       <c r="E18" t="n">
-        <v>78868</v>
+        <v>0.3799783022279524</v>
       </c>
       <c r="F18" t="n">
         <v>-1.8</v>
@@ -1114,7 +1114,7 @@
         <v>10019</v>
       </c>
       <c r="E19" t="n">
-        <v>116985</v>
+        <v>0.07888727914081446</v>
       </c>
       <c r="F19" t="n">
         <v>3.7</v>
@@ -1154,7 +1154,7 @@
         <v>1347</v>
       </c>
       <c r="E20" t="n">
-        <v>124635</v>
+        <v>0.0106920036195647</v>
       </c>
       <c r="F20" t="n">
         <v>13.4</v>
@@ -1194,7 +1194,7 @@
         <v>39370</v>
       </c>
       <c r="E21" t="n">
-        <v>78559</v>
+        <v>0.3338449405998525</v>
       </c>
       <c r="F21" t="n">
         <v>37.2</v>
@@ -1234,7 +1234,7 @@
         <v>14159</v>
       </c>
       <c r="E22" t="n">
-        <v>102226</v>
+        <v>0.121656570863943</v>
       </c>
       <c r="F22" t="n">
         <v>12.4</v>
@@ -1274,7 +1274,7 @@
         <v>5563</v>
       </c>
       <c r="E23" t="n">
-        <v>101432</v>
+        <v>0.0519930837889621</v>
       </c>
       <c r="F23" t="n">
         <v>13.6</v>
@@ -1314,7 +1314,7 @@
         <v>6946</v>
       </c>
       <c r="E24" t="n">
-        <v>99059</v>
+        <v>0.0655252110749493</v>
       </c>
       <c r="F24" t="n">
         <v>13.3</v>
@@ -1354,7 +1354,7 @@
         <v>22176</v>
       </c>
       <c r="E25" t="n">
-        <v>79367</v>
+        <v>0.2183902386181224</v>
       </c>
       <c r="F25" t="n">
         <v>-4.6</v>
@@ -1394,7 +1394,7 @@
         <v>12890</v>
       </c>
       <c r="E26" t="n">
-        <v>84397</v>
+        <v>0.1324945778983831</v>
       </c>
       <c r="F26" t="n">
         <v>15</v>
@@ -1434,7 +1434,7 @@
         <v>8442</v>
       </c>
       <c r="E27" t="n">
-        <v>87808</v>
+        <v>0.0877090909090909</v>
       </c>
       <c r="F27" t="n">
         <v>7.4</v>
@@ -1474,7 +1474,7 @@
         <v>31978</v>
       </c>
       <c r="E28" t="n">
-        <v>61873</v>
+        <v>0.3407315851722411</v>
       </c>
       <c r="F28" t="n">
         <v>0.1</v>
@@ -1514,7 +1514,7 @@
         <v>20878</v>
       </c>
       <c r="E29" t="n">
-        <v>72897</v>
+        <v>0.2226392961876833</v>
       </c>
       <c r="F29" t="n">
         <v>13.6</v>
@@ -1554,7 +1554,7 @@
         <v>2709</v>
       </c>
       <c r="E30" t="n">
-        <v>82540</v>
+        <v>0.03177749885629157</v>
       </c>
       <c r="F30" t="n">
         <v>32.5</v>
@@ -1594,7 +1594,7 @@
         <v>5231</v>
       </c>
       <c r="E31" t="n">
-        <v>78728</v>
+        <v>0.06230421991686418</v>
       </c>
       <c r="F31" t="n">
         <v>21.3</v>
@@ -1634,7 +1634,7 @@
         <v>2933</v>
       </c>
       <c r="E32" t="n">
-        <v>80131</v>
+        <v>0.03531012231532312</v>
       </c>
       <c r="F32" t="n">
         <v>7.7</v>
@@ -1674,7 +1674,7 @@
         <v>21548</v>
       </c>
       <c r="E33" t="n">
-        <v>60859</v>
+        <v>0.2614826410377759</v>
       </c>
       <c r="F33" t="n">
         <v>2.6</v>
@@ -1714,7 +1714,7 @@
         <v>21979</v>
       </c>
       <c r="E34" t="n">
-        <v>59309</v>
+        <v>0.2703843125676607</v>
       </c>
       <c r="F34" t="n">
         <v>94</v>
@@ -1754,7 +1754,7 @@
         <v>21952</v>
       </c>
       <c r="E35" t="n">
-        <v>57913</v>
+        <v>0.2748638327177111</v>
       </c>
       <c r="F35" t="n">
         <v>-10.1</v>
@@ -1794,7 +1794,7 @@
         <v>7618</v>
       </c>
       <c r="E36" t="n">
-        <v>71856</v>
+        <v>0.09585524825729169</v>
       </c>
       <c r="F36" t="n">
         <v>12.9</v>
@@ -1834,7 +1834,7 @@
         <v>19868</v>
       </c>
       <c r="E37" t="n">
-        <v>59156</v>
+        <v>0.2514172909495849</v>
       </c>
       <c r="F37" t="n">
         <v>1.5</v>
@@ -1874,7 +1874,7 @@
         <v>14306</v>
       </c>
       <c r="E38" t="n">
-        <v>61812</v>
+        <v>0.1879450327123676</v>
       </c>
       <c r="F38" t="n">
         <v>7.3</v>
@@ -1914,7 +1914,7 @@
         <v>6520</v>
       </c>
       <c r="E39" t="n">
-        <v>67676</v>
+        <v>0.08787535716211116</v>
       </c>
       <c r="F39" t="n">
         <v>-6.8</v>
@@ -1954,7 +1954,7 @@
         <v>5743</v>
       </c>
       <c r="E40" t="n">
-        <v>66601</v>
+        <v>0.07938460687824837</v>
       </c>
       <c r="F40" t="n">
         <v>-1.7</v>
@@ -1994,7 +1994,7 @@
         <v>6554</v>
       </c>
       <c r="E41" t="n">
-        <v>64526</v>
+        <v>0.09220596510973551</v>
       </c>
       <c r="F41" t="n">
         <v>4.8</v>
@@ -2034,7 +2034,7 @@
         <v>850.2</v>
       </c>
       <c r="E42" t="n">
-        <v>68840.2</v>
+        <v>0.01219967169079242</v>
       </c>
       <c r="F42" t="n">
         <v>11.6</v>
@@ -2072,7 +2072,7 @@
         <v>6315</v>
       </c>
       <c r="E43" t="n">
-        <v>60729</v>
+        <v>0.09419187399319849</v>
       </c>
       <c r="F43" t="n">
         <v>2.5</v>
@@ -2112,7 +2112,7 @@
         <v>12109</v>
       </c>
       <c r="E44" t="n">
-        <v>53789</v>
+        <v>0.1837536799295882</v>
       </c>
       <c r="F44" t="n">
         <v>-0.5</v>
@@ -2152,7 +2152,7 @@
         <v>21635</v>
       </c>
       <c r="E45" t="n">
-        <v>43354</v>
+        <v>0.3329024911908169</v>
       </c>
       <c r="F45" t="n">
         <v>21.5</v>
@@ -2192,7 +2192,7 @@
         <v>6503</v>
       </c>
       <c r="E46" t="n">
-        <v>56984</v>
+        <v>0.1024304188259014</v>
       </c>
       <c r="F46" t="n">
         <v>12.1</v>
@@ -2232,7 +2232,7 @@
         <v>15034</v>
       </c>
       <c r="E47" t="n">
-        <v>46087</v>
+        <v>0.2459711064936765</v>
       </c>
       <c r="F47" t="n">
         <v>17.4</v>
@@ -2270,7 +2270,7 @@
         <v>6956</v>
       </c>
       <c r="E48" t="n">
-        <v>51796</v>
+        <v>0.1183959694989107</v>
       </c>
       <c r="F48" t="n">
         <v>14</v>
@@ -2308,7 +2308,7 @@
         <v>11542</v>
       </c>
       <c r="E49" t="n">
-        <v>44655</v>
+        <v>0.2053846290727263</v>
       </c>
       <c r="F49" t="n">
         <v>22.7</v>
@@ -2348,7 +2348,7 @@
         <v>6311</v>
       </c>
       <c r="E50" t="n">
-        <v>48657</v>
+        <v>0.1148122544025615</v>
       </c>
       <c r="F50" t="n">
         <v>42.6</v>
@@ -2388,7 +2388,7 @@
         <v>5519</v>
       </c>
       <c r="E51" t="n">
-        <v>48304</v>
+        <v>0.1025398064024673</v>
       </c>
       <c r="F51" t="n">
         <v>70.7</v>
@@ -2428,7 +2428,7 @@
         <v>1599</v>
       </c>
       <c r="E52" t="n">
-        <v>51629</v>
+        <v>0.03004058014578793</v>
       </c>
       <c r="F52" t="n">
         <v>18.8</v>
@@ -2468,7 +2468,7 @@
         <v>2454</v>
       </c>
       <c r="E53" t="n">
-        <v>49307</v>
+        <v>0.04741021232201851</v>
       </c>
       <c r="F53" t="n">
         <v>9.5</v>
@@ -2508,7 +2508,7 @@
         <v>4654</v>
       </c>
       <c r="E54" t="n">
-        <v>47028</v>
+        <v>0.09005069463256066</v>
       </c>
       <c r="F54" t="n">
         <v>7.5</v>
@@ -2548,7 +2548,7 @@
         <v>524.2</v>
       </c>
       <c r="E55" t="n">
-        <v>50773.60000000001</v>
+        <v>0.01021876181824562</v>
       </c>
       <c r="F55" t="n">
         <v>-3</v>
@@ -2588,7 +2588,7 @@
         <v>13049</v>
       </c>
       <c r="E56" t="n">
-        <v>38167</v>
+        <v>0.2547836613558263</v>
       </c>
       <c r="F56" t="n">
         <v>6.7</v>
@@ -2628,7 +2628,7 @@
         <v>6489</v>
       </c>
       <c r="E57" t="n">
-        <v>44482</v>
+        <v>0.1273076847619234</v>
       </c>
       <c r="F57" t="n">
         <v>22.1</v>
@@ -2668,7 +2668,7 @@
         <v>10591</v>
       </c>
       <c r="E58" t="n">
-        <v>39227</v>
+        <v>0.2125938415833634</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>3282.8</v>
       </c>
       <c r="E59" t="n">
-        <v>45267.2</v>
+        <v>0.06761688980432544</v>
       </c>
       <c r="F59" t="n">
         <v>51.1</v>
@@ -2748,7 +2748,7 @@
         <v>3350.9</v>
       </c>
       <c r="E60" t="n">
-        <v>44351.1</v>
+        <v>0.07024653054379272</v>
       </c>
       <c r="F60" t="n">
         <v>11.8</v>
@@ -2788,7 +2788,7 @@
         <v>3047</v>
       </c>
       <c r="E61" t="n">
-        <v>44002</v>
+        <v>0.06476226912367956</v>
       </c>
       <c r="F61" t="n">
         <v>8.9</v>
@@ -2828,7 +2828,7 @@
         <v>5727</v>
       </c>
       <c r="E62" t="n">
-        <v>38811</v>
+        <v>0.1285868247339351</v>
       </c>
       <c r="F62" t="n">
         <v>19.1</v>
@@ -2868,7 +2868,7 @@
         <v>5963</v>
       </c>
       <c r="E63" t="n">
-        <v>38061</v>
+        <v>0.1354488460839542</v>
       </c>
       <c r="F63" t="n">
         <v>23.9</v>
@@ -2908,7 +2908,7 @@
         <v>8060</v>
       </c>
       <c r="E64" t="n">
-        <v>35603</v>
+        <v>0.1845956530701051</v>
       </c>
       <c r="F64" t="n">
         <v>14.3</v>
@@ -2948,7 +2948,7 @@
         <v>7071</v>
       </c>
       <c r="E65" t="n">
-        <v>36004</v>
+        <v>0.1641555426581544</v>
       </c>
       <c r="F65" t="n">
         <v>24.5</v>
@@ -2988,7 +2988,7 @@
         <v>116.3</v>
       </c>
       <c r="E66" t="n">
-        <v>42417.89999999999</v>
+        <v>0.002734270304837049</v>
       </c>
       <c r="F66" t="n">
         <v>-21.4</v>
@@ -3028,7 +3028,7 @@
         <v>4637.7</v>
       </c>
       <c r="E67" t="n">
-        <v>36169.2</v>
+        <v>0.1136498974438146</v>
       </c>
       <c r="F67" t="n">
         <v>50</v>
@@ -3068,7 +3068,7 @@
         <v>13746</v>
       </c>
       <c r="E68" t="n">
-        <v>26733</v>
+        <v>0.3395834877343808</v>
       </c>
       <c r="F68" t="n">
         <v>3.6</v>
@@ -3108,7 +3108,7 @@
         <v>7725</v>
       </c>
       <c r="E69" t="n">
-        <v>31486</v>
+        <v>0.197011042819617</v>
       </c>
       <c r="F69" t="n">
         <v>21.7</v>
@@ -3148,7 +3148,7 @@
         <v>9771</v>
       </c>
       <c r="E70" t="n">
-        <v>28884</v>
+        <v>0.2527745440434614</v>
       </c>
       <c r="F70" t="n">
         <v>17.1</v>
@@ -3186,7 +3186,7 @@
         <v>3257</v>
       </c>
       <c r="E71" t="n">
-        <v>35212</v>
+        <v>0.08466557487847358</v>
       </c>
       <c r="F71" t="n">
         <v>1.4</v>
@@ -3226,7 +3226,7 @@
         <v>6827.5</v>
       </c>
       <c r="E72" t="n">
-        <v>29656.4</v>
+        <v>0.1871373400321786</v>
       </c>
       <c r="F72" t="n">
         <v>81.2</v>
@@ -3266,7 +3266,7 @@
         <v>1706</v>
       </c>
       <c r="E73" t="n">
-        <v>34641</v>
+        <v>0.04693647343659724</v>
       </c>
       <c r="F73" t="n">
         <v>10</v>
@@ -3306,7 +3306,7 @@
         <v>7005</v>
       </c>
       <c r="E74" t="n">
-        <v>28662</v>
+        <v>0.1964000336445454</v>
       </c>
       <c r="F74" t="n">
         <v>-3.1</v>
@@ -3346,7 +3346,7 @@
         <v>5921</v>
       </c>
       <c r="E75" t="n">
-        <v>29434</v>
+        <v>0.1674727761278461</v>
       </c>
       <c r="F75" t="n">
         <v>9.9</v>
@@ -3386,7 +3386,7 @@
         <v>3662</v>
       </c>
       <c r="E76" t="n">
-        <v>31154</v>
+        <v>0.1051815257352941</v>
       </c>
       <c r="F76" t="n">
         <v>8.9</v>
@@ -3426,7 +3426,7 @@
         <v>1108.2</v>
       </c>
       <c r="E77" t="n">
-        <v>33368.8</v>
+        <v>0.03214316790904081</v>
       </c>
       <c r="F77" t="n">
         <v>20.2</v>
@@ -3466,7 +3466,7 @@
         <v>5542</v>
       </c>
       <c r="E78" t="n">
-        <v>28850</v>
+        <v>0.1611421260758316</v>
       </c>
       <c r="F78" t="n">
         <v>5.4</v>
@@ -3506,7 +3506,7 @@
         <v>2399.2</v>
       </c>
       <c r="E79" t="n">
-        <v>31821.2</v>
+        <v>0.07011022664843192</v>
       </c>
       <c r="F79" t="n">
         <v>1.4</v>
@@ -3546,7 +3546,7 @@
         <v>9043</v>
       </c>
       <c r="E80" t="n">
-        <v>24523</v>
+        <v>0.2694095215396532</v>
       </c>
       <c r="F80" t="n">
         <v>42.6</v>
@@ -3586,7 +3586,7 @@
         <v>12390</v>
       </c>
       <c r="E81" t="n">
-        <v>19643</v>
+        <v>0.3867886242312615</v>
       </c>
       <c r="F81" t="n">
         <v>1.2</v>
@@ -3626,7 +3626,7 @@
         <v>395.1</v>
       </c>
       <c r="E82" t="n">
-        <v>31219.1</v>
+        <v>0.01249754856994642</v>
       </c>
       <c r="F82" t="n">
         <v>28.1</v>
@@ -3666,7 +3666,7 @@
         <v>9109</v>
       </c>
       <c r="E83" t="n">
-        <v>22296</v>
+        <v>0.2900493551982168</v>
       </c>
       <c r="F83" t="n">
         <v>9.4</v>
@@ -3706,7 +3706,7 @@
         <v>73.7</v>
       </c>
       <c r="E84" t="n">
-        <v>31263.3</v>
+        <v>0.002351852442799247</v>
       </c>
       <c r="F84" t="n">
         <v>53.9</v>
@@ -3746,7 +3746,7 @@
         <v>5116.2</v>
       </c>
       <c r="E85" t="n">
-        <v>24581.6</v>
+        <v>0.1722753874024338</v>
       </c>
       <c r="F85" t="n">
         <v>18.8</v>
@@ -3784,7 +3784,7 @@
         <v>4543</v>
       </c>
       <c r="E86" t="n">
-        <v>25036</v>
+        <v>0.1535886946820379</v>
       </c>
       <c r="F86" t="n">
         <v>13</v>
@@ -3824,7 +3824,7 @@
         <v>6433</v>
       </c>
       <c r="E87" t="n">
-        <v>23020</v>
+        <v>0.218415781074933</v>
       </c>
       <c r="F87" t="n">
         <v>32.2</v>
@@ -3864,7 +3864,7 @@
         <v>696</v>
       </c>
       <c r="E88" t="n">
-        <v>28589</v>
+        <v>0.02376643332764214</v>
       </c>
       <c r="F88" t="n">
         <v>7.4</v>
@@ -3904,7 +3904,7 @@
         <v>4199.3</v>
       </c>
       <c r="E89" t="n">
-        <v>24861.3</v>
+        <v>0.1445014899898832</v>
       </c>
       <c r="F89" t="n">
         <v>23.6</v>
@@ -3944,7 +3944,7 @@
         <v>4300</v>
       </c>
       <c r="E90" t="n">
-        <v>24420</v>
+        <v>0.1497214484679666</v>
       </c>
       <c r="F90" t="n">
         <v>8</v>
@@ -3984,7 +3984,7 @@
         <v>5581.7</v>
       </c>
       <c r="E91" t="n">
-        <v>22736.7</v>
+        <v>0.1971050624329058</v>
       </c>
       <c r="F91" t="n">
         <v>15.4</v>
@@ -4024,7 +4024,7 @@
         <v>4175.8</v>
       </c>
       <c r="E92" t="n">
-        <v>23598.4</v>
+        <v>0.1503481648436319</v>
       </c>
       <c r="F92" t="n">
         <v>36.7</v>
@@ -4064,7 +4064,7 @@
         <v>659</v>
       </c>
       <c r="E93" t="n">
-        <v>27112</v>
+        <v>0.02372979006877678</v>
       </c>
       <c r="F93" t="n">
         <v>43</v>
@@ -4104,7 +4104,7 @@
         <v>1836.6</v>
       </c>
       <c r="E94" t="n">
-        <v>25909.4</v>
+        <v>0.0661933251639876</v>
       </c>
       <c r="F94" t="n">
         <v>16.5</v>
@@ -4144,7 +4144,7 @@
         <v>5861</v>
       </c>
       <c r="E95" t="n">
-        <v>21844</v>
+        <v>0.2115502616856163</v>
       </c>
       <c r="F95" t="n">
         <v>29.3</v>
@@ -4184,7 +4184,7 @@
         <v>6736</v>
       </c>
       <c r="E96" t="n">
-        <v>20714</v>
+        <v>0.2453916211293261</v>
       </c>
       <c r="F96" t="n">
         <v>14.9</v>
@@ -4224,7 +4224,7 @@
         <v>6225</v>
       </c>
       <c r="E97" t="n">
-        <v>21080</v>
+        <v>0.2279802234023073</v>
       </c>
       <c r="F97" t="n">
         <v>10.6</v>
@@ -4264,7 +4264,7 @@
         <v>4430.1</v>
       </c>
       <c r="E98" t="n">
-        <v>22700.6</v>
+        <v>0.1632873460692131</v>
       </c>
       <c r="F98" t="n">
         <v>20.6</v>
@@ -4304,7 +4304,7 @@
         <v>2187</v>
       </c>
       <c r="E99" t="n">
-        <v>24802</v>
+        <v>0.08103301344992404</v>
       </c>
       <c r="F99" t="n">
         <v>196.8</v>
@@ -4344,7 +4344,7 @@
         <v>9752</v>
       </c>
       <c r="E100" t="n">
-        <v>17162</v>
+        <v>0.3623393029649996</v>
       </c>
       <c r="F100" t="n">
         <v>61.4</v>
@@ -4384,7 +4384,7 @@
         <v>1444</v>
       </c>
       <c r="E101" t="n">
-        <v>25048</v>
+        <v>0.05450702098746792</v>
       </c>
       <c r="F101" t="n">
         <v>24.7</v>
@@ -4424,7 +4424,7 @@
         <v>1327.9</v>
       </c>
       <c r="E102" t="n">
-        <v>24993.3</v>
+        <v>0.05044982751546282</v>
       </c>
       <c r="F102" t="n">
         <v>3.2</v>
@@ -4464,7 +4464,7 @@
         <v>4666.5</v>
       </c>
       <c r="E103" t="n">
-        <v>21474.8</v>
+        <v>0.178510632600521</v>
       </c>
       <c r="F103" t="n">
         <v>171.5</v>
@@ -4504,7 +4504,7 @@
         <v>1012</v>
       </c>
       <c r="E104" t="n">
-        <v>25030</v>
+        <v>0.03886030258812687</v>
       </c>
       <c r="F104" t="n">
         <v>-0.5</v>
@@ -4544,7 +4544,7 @@
         <v>5893</v>
       </c>
       <c r="E105" t="n">
-        <v>20086</v>
+        <v>0.2268370607028754</v>
       </c>
       <c r="F105" t="n">
         <v>2.2</v>
@@ -4584,7 +4584,7 @@
         <v>1373</v>
       </c>
       <c r="E106" t="n">
-        <v>24471</v>
+        <v>0.05312645101377496</v>
       </c>
       <c r="F106" t="n">
         <v>26.7</v>
@@ -4624,7 +4624,7 @@
         <v>1187.8</v>
       </c>
       <c r="E107" t="n">
-        <v>24366.9</v>
+        <v>0.04648068652733157</v>
       </c>
       <c r="F107" t="n">
         <v>25</v>
@@ -4664,7 +4664,7 @@
         <v>4169</v>
       </c>
       <c r="E108" t="n">
-        <v>21202</v>
+        <v>0.1643214693941902</v>
       </c>
       <c r="F108" t="n">
         <v>18.3</v>
@@ -4704,7 +4704,7 @@
         <v>3908</v>
       </c>
       <c r="E109" t="n">
-        <v>20769</v>
+        <v>0.158366089881266</v>
       </c>
       <c r="F109" t="n">
         <v>5.2</v>
@@ -4744,7 +4744,7 @@
         <v>12311</v>
       </c>
       <c r="E110" t="n">
-        <v>11794</v>
+        <v>0.5107239161999585</v>
       </c>
       <c r="F110" t="n">
         <v>10.3</v>
@@ -4784,7 +4784,7 @@
         <v>2131</v>
       </c>
       <c r="E111" t="n">
-        <v>21890</v>
+        <v>0.08871404188002165</v>
       </c>
       <c r="F111" t="n">
         <v>21.3</v>
@@ -4824,7 +4824,7 @@
         <v>7963</v>
       </c>
       <c r="E112" t="n">
-        <v>15751</v>
+        <v>0.3357932023277389</v>
       </c>
       <c r="F112" t="n">
         <v>-6</v>
@@ -4864,7 +4864,7 @@
         <v>1852.1</v>
       </c>
       <c r="E113" t="n">
-        <v>21670.2</v>
+        <v>0.07873804857518185</v>
       </c>
       <c r="F113" t="n">
         <v>25.6</v>
@@ -4904,7 +4904,7 @@
         <v>7545.2</v>
       </c>
       <c r="E114" t="n">
-        <v>15677.7</v>
+        <v>0.3249034358327341</v>
       </c>
       <c r="F114" t="n">
         <v>20.9</v>
@@ -4944,7 +4944,7 @@
         <v>2393</v>
       </c>
       <c r="E115" t="n">
-        <v>20720</v>
+        <v>0.1035348072513304</v>
       </c>
       <c r="F115" t="n">
         <v>13.4</v>
@@ -4984,7 +4984,7 @@
         <v>844.2</v>
       </c>
       <c r="E116" t="n">
-        <v>22257.9</v>
+        <v>0.03654213253340606</v>
       </c>
       <c r="F116" t="n">
         <v>42.5</v>
@@ -5024,7 +5024,7 @@
         <v>6440</v>
       </c>
       <c r="E117" t="n">
-        <v>16624</v>
+        <v>0.2792230315643427</v>
       </c>
       <c r="F117" t="n">
         <v>-5.6</v>
@@ -5064,7 +5064,7 @@
         <v>5888</v>
       </c>
       <c r="E118" t="n">
-        <v>17175</v>
+        <v>0.2553006980878463</v>
       </c>
       <c r="F118" t="n">
         <v>34.1</v>
@@ -5104,7 +5104,7 @@
         <v>4306</v>
       </c>
       <c r="E119" t="n">
-        <v>18539</v>
+        <v>0.188487634055592</v>
       </c>
       <c r="F119" t="n">
         <v>60.9</v>
@@ -5144,7 +5144,7 @@
         <v>1060</v>
       </c>
       <c r="E120" t="n">
-        <v>21771.7</v>
+        <v>0.04642667869672429</v>
       </c>
       <c r="F120" t="n">
         <v>74</v>
@@ -5184,7 +5184,7 @@
         <v>5857.4</v>
       </c>
       <c r="E121" t="n">
-        <v>16719.7</v>
+        <v>0.2594398749175049</v>
       </c>
       <c r="F121" t="n">
         <v>270</v>
@@ -5224,7 +5224,7 @@
         <v>2365</v>
       </c>
       <c r="E122" t="n">
-        <v>20025</v>
+        <v>0.1056275122822689</v>
       </c>
       <c r="F122" t="n">
         <v>9.1</v>
@@ -5264,7 +5264,7 @@
         <v>4325</v>
       </c>
       <c r="E123" t="n">
-        <v>17781</v>
+        <v>0.195648240296752</v>
       </c>
       <c r="F123" t="n">
         <v>-0.2</v>
@@ -5304,7 +5304,7 @@
         <v>1783</v>
       </c>
       <c r="E124" t="n">
-        <v>20202</v>
+        <v>0.08110075051171253</v>
       </c>
       <c r="F124" t="n">
         <v>13</v>
@@ -5344,7 +5344,7 @@
         <v>6523</v>
       </c>
       <c r="E125" t="n">
-        <v>15281</v>
+        <v>0.2991652907723353</v>
       </c>
       <c r="F125" t="n">
         <v>11.6</v>
@@ -5384,7 +5384,7 @@
         <v>1752</v>
       </c>
       <c r="E126" t="n">
-        <v>20028</v>
+        <v>0.08044077134986226</v>
       </c>
       <c r="F126" t="n">
         <v>5.8</v>
@@ -5424,7 +5424,7 @@
         <v>2475</v>
       </c>
       <c r="E127" t="n">
-        <v>18636</v>
+        <v>0.1172374591445218</v>
       </c>
       <c r="F127" t="n">
         <v>1.3</v>
@@ -5464,7 +5464,7 @@
         <v>988.6</v>
       </c>
       <c r="E128" t="n">
-        <v>19832.2</v>
+        <v>0.0474813647890571</v>
       </c>
       <c r="F128" t="n">
         <v>12.7</v>
@@ -5504,7 +5504,7 @@
         <v>382.4</v>
       </c>
       <c r="E129" t="n">
-        <v>20342</v>
+        <v>0.01845168014514292</v>
       </c>
       <c r="F129" t="n">
         <v>15.1</v>
@@ -5544,7 +5544,7 @@
         <v>1664</v>
       </c>
       <c r="E130" t="n">
-        <v>18949</v>
+        <v>0.08072575559113181</v>
       </c>
       <c r="F130" t="n">
         <v>18.1</v>
@@ -5584,7 +5584,7 @@
         <v>2092</v>
       </c>
       <c r="E131" t="n">
-        <v>18156</v>
+        <v>0.103318846305808</v>
       </c>
       <c r="F131" t="n">
         <v>18.3</v>
@@ -5624,7 +5624,7 @@
         <v>746.9</v>
       </c>
       <c r="E132" t="n">
-        <v>19345.2</v>
+        <v>0.03717381458384141</v>
       </c>
       <c r="F132" t="n">
         <v>-6.2</v>
@@ -5664,7 +5664,7 @@
         <v>1864.4</v>
       </c>
       <c r="E133" t="n">
-        <v>18080.2</v>
+        <v>0.09347893665453307</v>
       </c>
       <c r="F133" t="n">
         <v>8.6</v>
@@ -5704,7 +5704,7 @@
         <v>1725.4</v>
       </c>
       <c r="E134" t="n">
-        <v>18168.5</v>
+        <v>0.08673010319746254</v>
       </c>
       <c r="F134" t="n">
         <v>132.4</v>
@@ -5744,7 +5744,7 @@
         <v>3143</v>
       </c>
       <c r="E135" t="n">
-        <v>16677</v>
+        <v>0.158577194752775</v>
       </c>
       <c r="F135" t="n">
         <v>15.1</v>
@@ -5784,7 +5784,7 @@
         <v>5674</v>
       </c>
       <c r="E136" t="n">
-        <v>14024</v>
+        <v>0.28804954817748</v>
       </c>
       <c r="F136" t="n">
         <v>-18.1</v>
@@ -5824,7 +5824,7 @@
         <v>914</v>
       </c>
       <c r="E137" t="n">
-        <v>18571</v>
+        <v>0.04690787785476007</v>
       </c>
       <c r="F137" t="n">
         <v>10.5</v>
@@ -5864,7 +5864,7 @@
         <v>1814</v>
       </c>
       <c r="E138" t="n">
-        <v>17626</v>
+        <v>0.09331275720164608</v>
       </c>
       <c r="F138" t="n">
         <v>1.6</v>
@@ -5904,7 +5904,7 @@
         <v>5901</v>
       </c>
       <c r="E139" t="n">
-        <v>13473</v>
+        <v>0.3045834623722515</v>
       </c>
       <c r="F139" t="n">
         <v>19.6</v>
@@ -5944,7 +5944,7 @@
         <v>961.6</v>
       </c>
       <c r="E140" t="n">
-        <v>18405.4</v>
+        <v>0.04965146899364899</v>
       </c>
       <c r="F140" t="n">
         <v>16.7</v>
@@ -5984,7 +5984,7 @@
         <v>373.9</v>
       </c>
       <c r="E141" t="n">
-        <v>18889.2</v>
+        <v>0.01941016762618685</v>
       </c>
       <c r="F141" t="n">
         <v>13</v>
@@ -6024,7 +6024,7 @@
         <v>1405</v>
       </c>
       <c r="E142" t="n">
-        <v>17825</v>
+        <v>0.07306292251690068</v>
       </c>
       <c r="F142" t="n">
         <v>10.3</v>
@@ -6064,7 +6064,7 @@
         <v>5855</v>
       </c>
       <c r="E143" t="n">
-        <v>13141</v>
+        <v>0.3082227837439461</v>
       </c>
       <c r="F143" t="n">
         <v>56.9</v>
@@ -6104,7 +6104,7 @@
         <v>1722.6</v>
       </c>
       <c r="E144" t="n">
-        <v>17193.6</v>
+        <v>0.09106480159862974</v>
       </c>
       <c r="F144" t="n">
         <v>50.9</v>
@@ -6144,7 +6144,7 @@
         <v>8687</v>
       </c>
       <c r="E145" t="n">
-        <v>10197</v>
+        <v>0.4600190637576785</v>
       </c>
       <c r="F145" t="n">
         <v>23.4</v>
@@ -6184,7 +6184,7 @@
         <v>2137</v>
       </c>
       <c r="E146" t="n">
-        <v>16370</v>
+        <v>0.1154698222294267</v>
       </c>
       <c r="F146" t="n">
         <v>11.1</v>
@@ -6224,7 +6224,7 @@
         <v>3214.1</v>
       </c>
       <c r="E147" t="n">
-        <v>15194.8</v>
+        <v>0.1745948970335001</v>
       </c>
       <c r="F147" t="n">
         <v>91.7</v>
@@ -6264,7 +6264,7 @@
         <v>7769</v>
       </c>
       <c r="E148" t="n">
-        <v>10575</v>
+        <v>0.4235172263410379</v>
       </c>
       <c r="F148" t="n">
         <v>26.9</v>
@@ -6304,7 +6304,7 @@
         <v>2303</v>
       </c>
       <c r="E149" t="n">
-        <v>15933</v>
+        <v>0.1262886597938144</v>
       </c>
       <c r="F149" t="n">
         <v>8.6</v>
@@ -6344,7 +6344,7 @@
         <v>465.4</v>
       </c>
       <c r="E150" t="n">
-        <v>17752.1</v>
+        <v>0.02554686427885275</v>
       </c>
       <c r="F150" t="n">
         <v>47.8</v>
@@ -6384,7 +6384,7 @@
         <v>2339.8</v>
       </c>
       <c r="E151" t="n">
-        <v>15787.2</v>
+        <v>0.1290781706846141</v>
       </c>
       <c r="F151" t="n">
         <v>2.8</v>
@@ -6424,7 +6424,7 @@
         <v>1816</v>
       </c>
       <c r="E152" t="n">
-        <v>16115</v>
+        <v>0.1012771178406112</v>
       </c>
       <c r="F152" t="n">
         <v>17.8</v>
@@ -6464,7 +6464,7 @@
         <v>2410.6</v>
       </c>
       <c r="E153" t="n">
-        <v>15470.5</v>
+        <v>0.1348127352344095</v>
       </c>
       <c r="F153" t="n">
         <v>15.4</v>
@@ -6504,7 +6504,7 @@
         <v>1846</v>
       </c>
       <c r="E154" t="n">
-        <v>15968</v>
+        <v>0.1036263612888739</v>
       </c>
       <c r="F154" t="n">
         <v>-2.1</v>
@@ -6544,7 +6544,7 @@
         <v>166.3</v>
       </c>
       <c r="E155" t="n">
-        <v>17494.9</v>
+        <v>0.009416121214866487</v>
       </c>
       <c r="F155" t="n">
         <v>86</v>
@@ -6584,7 +6584,7 @@
         <v>2166</v>
       </c>
       <c r="E156" t="n">
-        <v>15255</v>
+        <v>0.1243327019114861</v>
       </c>
       <c r="F156" t="n">
         <v>5.8</v>
@@ -6624,7 +6624,7 @@
         <v>1689.2</v>
       </c>
       <c r="E157" t="n">
-        <v>15563.5</v>
+        <v>0.09790931274525147</v>
       </c>
       <c r="F157" t="n">
         <v>18.7</v>
@@ -6664,7 +6664,7 @@
         <v>1994</v>
       </c>
       <c r="E158" t="n">
-        <v>15114</v>
+        <v>0.1165536591068506</v>
       </c>
       <c r="F158" t="n">
         <v>19.2</v>
@@ -6704,7 +6704,7 @@
         <v>3573</v>
       </c>
       <c r="E159" t="n">
-        <v>13496</v>
+        <v>0.2093268498447478</v>
       </c>
       <c r="F159" t="n">
         <v>-5.2</v>
@@ -6744,7 +6744,7 @@
         <v>1439</v>
       </c>
       <c r="E160" t="n">
-        <v>15363</v>
+        <v>0.08564456612308058</v>
       </c>
       <c r="F160" t="n">
         <v>21.5</v>
@@ -6784,7 +6784,7 @@
         <v>2488.1</v>
       </c>
       <c r="E161" t="n">
-        <v>14303.9</v>
+        <v>0.1481717484516436</v>
       </c>
       <c r="F161" t="n">
         <v>12.6</v>
@@ -6824,7 +6824,7 @@
         <v>426.7</v>
       </c>
       <c r="E162" t="n">
-        <v>16240.6</v>
+        <v>0.02560102716096788</v>
       </c>
       <c r="F162" t="n">
         <v>8</v>
@@ -6864,7 +6864,7 @@
         <v>617</v>
       </c>
       <c r="E163" t="n">
-        <v>16041</v>
+        <v>0.03703926041541602</v>
       </c>
       <c r="F163" t="n">
         <v>14.1</v>
@@ -6904,7 +6904,7 @@
         <v>1784</v>
       </c>
       <c r="E164" t="n">
-        <v>14826</v>
+        <v>0.1074051776038531</v>
       </c>
       <c r="F164" t="n">
         <v>42</v>
@@ -6944,7 +6944,7 @@
         <v>1499.7</v>
       </c>
       <c r="E165" t="n">
-        <v>15040.6</v>
+        <v>0.09066945581398161</v>
       </c>
       <c r="F165" t="n">
         <v>93.59999999999999</v>
@@ -6984,7 +6984,7 @@
         <v>1415.5</v>
       </c>
       <c r="E166" t="n">
-        <v>15108</v>
+        <v>0.08566586982176899</v>
       </c>
       <c r="F166" t="n">
         <v>72.40000000000001</v>
@@ -7024,7 +7024,7 @@
         <v>3162</v>
       </c>
       <c r="E167" t="n">
-        <v>13272</v>
+        <v>0.1924059875867105</v>
       </c>
       <c r="F167" t="n">
         <v>68.3</v>
@@ -7064,7 +7064,7 @@
         <v>1334</v>
       </c>
       <c r="E168" t="n">
-        <v>14892</v>
+        <v>0.08221373104893381</v>
       </c>
       <c r="F168" t="n">
         <v>9.300000000000001</v>
@@ -7104,7 +7104,7 @@
         <v>2870</v>
       </c>
       <c r="E169" t="n">
-        <v>13345</v>
+        <v>0.1769966080789392</v>
       </c>
       <c r="F169" t="n">
         <v>13.4</v>
@@ -7144,7 +7144,7 @@
         <v>3759</v>
       </c>
       <c r="E170" t="n">
-        <v>12399</v>
+        <v>0.2326401782398812</v>
       </c>
       <c r="F170" t="n">
         <v>-4.6</v>
@@ -7184,7 +7184,7 @@
         <v>2377.3</v>
       </c>
       <c r="E171" t="n">
-        <v>13743.6</v>
+        <v>0.1474669528376207</v>
       </c>
       <c r="F171" t="n">
         <v>15.3</v>
@@ -7224,7 +7224,7 @@
         <v>8075.3</v>
       </c>
       <c r="E172" t="n">
-        <v>7996.400000000001</v>
+        <v>0.5024546252107742</v>
       </c>
       <c r="F172" t="n">
         <v>89.09999999999999</v>
@@ -7264,7 +7264,7 @@
         <v>4822</v>
       </c>
       <c r="E173" t="n">
-        <v>10963</v>
+        <v>0.3054798859676908</v>
       </c>
       <c r="F173" t="n">
         <v>22.7</v>
@@ -7304,7 +7304,7 @@
         <v>4221</v>
       </c>
       <c r="E174" t="n">
-        <v>11531</v>
+        <v>0.2679659725749111</v>
       </c>
       <c r="F174" t="n">
         <v>-4.4</v>
@@ -7344,7 +7344,7 @@
         <v>1759</v>
       </c>
       <c r="E175" t="n">
-        <v>13896</v>
+        <v>0.112360268284893</v>
       </c>
       <c r="F175" t="n">
         <v>10.1</v>
@@ -7384,7 +7384,7 @@
         <v>2422</v>
       </c>
       <c r="E176" t="n">
-        <v>13221</v>
+        <v>0.1548296362590296</v>
       </c>
       <c r="F176" t="n">
         <v>45.1</v>
@@ -7424,7 +7424,7 @@
         <v>907</v>
       </c>
       <c r="E177" t="n">
-        <v>14462</v>
+        <v>0.05901490012362548</v>
       </c>
       <c r="F177" t="n">
         <v>26.2</v>
@@ -7464,7 +7464,7 @@
         <v>396.9</v>
       </c>
       <c r="E178" t="n">
-        <v>14921.9</v>
+        <v>0.02590934015719247</v>
       </c>
       <c r="F178" t="n">
         <v>61.2</v>
@@ -7504,7 +7504,7 @@
         <v>2598.5</v>
       </c>
       <c r="E179" t="n">
-        <v>12406.9</v>
+        <v>0.1731709917762939</v>
       </c>
       <c r="F179" t="n">
         <v>2.8</v>
@@ -7544,7 +7544,7 @@
         <v>759</v>
       </c>
       <c r="E180" t="n">
-        <v>14146</v>
+        <v>0.05092250922509225</v>
       </c>
       <c r="F180" t="n">
         <v>9.800000000000001</v>
@@ -7584,7 +7584,7 @@
         <v>537</v>
       </c>
       <c r="E181" t="n">
-        <v>14301</v>
+        <v>0.03619086130206228</v>
       </c>
       <c r="F181" t="n">
         <v>46</v>
@@ -7624,7 +7624,7 @@
         <v>2170.3</v>
       </c>
       <c r="E182" t="n">
-        <v>12459.3</v>
+        <v>0.1483499207087002</v>
       </c>
       <c r="F182" t="n">
         <v>15.8</v>
@@ -7664,7 +7664,7 @@
         <v>3908.5</v>
       </c>
       <c r="E183" t="n">
-        <v>10717.7</v>
+        <v>0.2672259370171336</v>
       </c>
       <c r="F183" t="n">
         <v>45.6</v>
@@ -7704,7 +7704,7 @@
         <v>2694</v>
       </c>
       <c r="E184" t="n">
-        <v>11761</v>
+        <v>0.186371497751643</v>
       </c>
       <c r="F184" t="n">
         <v>15</v>
@@ -7744,7 +7744,7 @@
         <v>1746.1</v>
       </c>
       <c r="E185" t="n">
-        <v>12601.5</v>
+        <v>0.1216997964816415</v>
       </c>
       <c r="F185" t="n">
         <v>4.8</v>
@@ -7784,7 +7784,7 @@
         <v>1246</v>
       </c>
       <c r="E186" t="n">
-        <v>13052</v>
+        <v>0.08714505525248287</v>
       </c>
       <c r="F186" t="n">
         <v>12.1</v>
@@ -7824,7 +7824,7 @@
         <v>1407.8</v>
       </c>
       <c r="E187" t="n">
-        <v>12881.6</v>
+        <v>0.098520581689924</v>
       </c>
       <c r="F187" t="n">
         <v>8.5</v>
@@ -7864,7 +7864,7 @@
         <v>1710.6</v>
       </c>
       <c r="E188" t="n">
-        <v>12552.1</v>
+        <v>0.1199352156323838</v>
       </c>
       <c r="F188" t="n">
         <v>-3.2</v>
@@ -7904,7 +7904,7 @@
         <v>1488</v>
       </c>
       <c r="E189" t="n">
-        <v>12693</v>
+        <v>0.1049291305267612</v>
       </c>
       <c r="F189" t="n">
         <v>3</v>
@@ -7944,7 +7944,7 @@
         <v>1413</v>
       </c>
       <c r="E190" t="n">
-        <v>12680.3</v>
+        <v>0.1002604074276429</v>
       </c>
       <c r="F190" t="n">
         <v>59.9</v>
@@ -7984,7 +7984,7 @@
         <v>477</v>
       </c>
       <c r="E191" t="n">
-        <v>13615.6</v>
+        <v>0.03384755119708215</v>
       </c>
       <c r="F191" t="n">
         <v>3.8</v>
@@ -8024,7 +8024,7 @@
         <v>1906</v>
       </c>
       <c r="E192" t="n">
-        <v>12176</v>
+        <v>0.1353500923164323</v>
       </c>
       <c r="F192" t="n">
         <v>24.6</v>
@@ -8064,7 +8064,7 @@
         <v>340</v>
       </c>
       <c r="E193" t="n">
-        <v>13704</v>
+        <v>0.0242096268869268</v>
       </c>
       <c r="F193" t="n">
         <v>-0.9</v>
@@ -8104,7 +8104,7 @@
         <v>1946.3</v>
       </c>
       <c r="E194" t="n">
-        <v>11980.6</v>
+        <v>0.1397511291098522</v>
       </c>
       <c r="F194" t="n">
         <v>26.2</v>
@@ -8144,7 +8144,7 @@
         <v>417</v>
       </c>
       <c r="E195" t="n">
-        <v>13460</v>
+        <v>0.03004972256251351</v>
       </c>
       <c r="F195" t="n">
         <v>10.6</v>
@@ -8184,7 +8184,7 @@
         <v>966</v>
       </c>
       <c r="E196" t="n">
-        <v>12908</v>
+        <v>0.06962663975782038</v>
       </c>
       <c r="F196" t="n">
         <v>22.1</v>
@@ -8224,7 +8224,7 @@
         <v>733</v>
       </c>
       <c r="E197" t="n">
-        <v>13117</v>
+        <v>0.05292418772563177</v>
       </c>
       <c r="F197" t="n">
         <v>18.3</v>
@@ -8264,7 +8264,7 @@
         <v>878</v>
       </c>
       <c r="E198" t="n">
-        <v>12933</v>
+        <v>0.06357251466222576</v>
       </c>
       <c r="F198" t="n">
         <v>17.2</v>
@@ -8304,7 +8304,7 @@
         <v>552.1</v>
       </c>
       <c r="E199" t="n">
-        <v>13249.6</v>
+        <v>0.04000231855496062</v>
       </c>
       <c r="F199" t="n">
         <v>27.2</v>
@@ -8344,7 +8344,7 @@
         <v>753</v>
       </c>
       <c r="E200" t="n">
-        <v>12984</v>
+        <v>0.05481546189124263</v>
       </c>
       <c r="F200" t="n">
         <v>11.7</v>
@@ -8384,7 +8384,7 @@
         <v>131</v>
       </c>
       <c r="E201" t="n">
-        <v>13577</v>
+        <v>0.009556463379048731</v>
       </c>
       <c r="F201" t="n">
         <v>-3.1</v>
@@ -8424,7 +8424,7 @@
         <v>1346</v>
       </c>
       <c r="E202" t="n">
-        <v>12330</v>
+        <v>0.09842059081602808</v>
       </c>
       <c r="F202" t="n">
         <v>11.7</v>
@@ -8464,7 +8464,7 @@
         <v>2760</v>
       </c>
       <c r="E203" t="n">
-        <v>10683</v>
+        <v>0.2053113144387413</v>
       </c>
       <c r="F203" t="n">
         <v>12.4</v>
@@ -8504,7 +8504,7 @@
         <v>1597</v>
       </c>
       <c r="E204" t="n">
-        <v>11834</v>
+        <v>0.1189040279949371</v>
       </c>
       <c r="F204" t="n">
         <v>16.5</v>
@@ -8544,7 +8544,7 @@
         <v>2164.7</v>
       </c>
       <c r="E205" t="n">
-        <v>11162.9</v>
+        <v>0.162422341606891</v>
       </c>
       <c r="F205" t="n">
         <v>14.8</v>
@@ -8584,7 +8584,7 @@
         <v>60.8</v>
       </c>
       <c r="E206" t="n">
-        <v>13187.5</v>
+        <v>0.004589268057033732</v>
       </c>
       <c r="F206" t="n">
         <v>59.2</v>
@@ -8624,7 +8624,7 @@
         <v>5449</v>
       </c>
       <c r="E207" t="n">
-        <v>7772</v>
+        <v>0.4121473413508812</v>
       </c>
       <c r="F207" t="n">
         <v>2.1</v>
@@ -8664,7 +8664,7 @@
         <v>308.2</v>
       </c>
       <c r="E208" t="n">
-        <v>12867.4</v>
+        <v>0.02339172409605635</v>
       </c>
       <c r="F208" t="n">
         <v>-17.6</v>
@@ -8704,7 +8704,7 @@
         <v>1090.9</v>
       </c>
       <c r="E209" t="n">
-        <v>11997.6</v>
+        <v>0.08334797723192115</v>
       </c>
       <c r="F209" t="n">
         <v>12.6</v>
@@ -8744,7 +8744,7 @@
         <v>1043</v>
       </c>
       <c r="E210" t="n">
-        <v>11979</v>
+        <v>0.08009522346797728</v>
       </c>
       <c r="F210" t="n">
         <v>10.4</v>
@@ -8784,7 +8784,7 @@
         <v>486</v>
       </c>
       <c r="E211" t="n">
-        <v>12494.2</v>
+        <v>0.03744164188533304</v>
       </c>
       <c r="F211" t="n">
         <v>15.9</v>
@@ -8824,7 +8824,7 @@
         <v>560</v>
       </c>
       <c r="E212" t="n">
-        <v>12419</v>
+        <v>0.04314662146544418</v>
       </c>
       <c r="F212" t="n">
         <v>12.1</v>
@@ -8864,7 +8864,7 @@
         <v>2150</v>
       </c>
       <c r="E213" t="n">
-        <v>10759</v>
+        <v>0.1665504686652723</v>
       </c>
       <c r="F213" t="n">
         <v>4.9</v>
@@ -8904,7 +8904,7 @@
         <v>1317</v>
       </c>
       <c r="E214" t="n">
-        <v>11540</v>
+        <v>0.1024344714941277</v>
       </c>
       <c r="F214" t="n">
         <v>7.7</v>
@@ -8944,7 +8944,7 @@
         <v>2425</v>
       </c>
       <c r="E215" t="n">
-        <v>10421.4</v>
+        <v>0.1887688379623864</v>
       </c>
       <c r="F215" t="n">
         <v>32</v>
@@ -8984,7 +8984,7 @@
         <v>336</v>
       </c>
       <c r="E216" t="n">
-        <v>12470</v>
+        <v>0.02623770107761986</v>
       </c>
       <c r="F216" t="n">
         <v>-21.2</v>
@@ -9024,7 +9024,7 @@
         <v>1284</v>
       </c>
       <c r="E217" t="n">
-        <v>11500</v>
+        <v>0.1004380475594493</v>
       </c>
       <c r="F217" t="n">
         <v>9.5</v>
@@ -9064,7 +9064,7 @@
         <v>997.1</v>
       </c>
       <c r="E218" t="n">
-        <v>11734</v>
+        <v>0.07832001947985641</v>
       </c>
       <c r="F218" t="n">
         <v>19.9</v>
@@ -9104,7 +9104,7 @@
         <v>104</v>
       </c>
       <c r="E219" t="n">
-        <v>12624.8</v>
+        <v>0.008170448117654454</v>
       </c>
       <c r="F219" t="n">
         <v>55.1</v>
@@ -9144,7 +9144,7 @@
         <v>2146</v>
       </c>
       <c r="E220" t="n">
-        <v>10537</v>
+        <v>0.1692028699834424</v>
       </c>
       <c r="F220" t="n">
         <v>9.199999999999999</v>
@@ -9184,7 +9184,7 @@
         <v>991.6</v>
       </c>
       <c r="E221" t="n">
-        <v>11650.5</v>
+        <v>0.07843633573536042</v>
       </c>
       <c r="F221" t="n">
         <v>9.4</v>
@@ -9224,7 +9224,7 @@
         <v>3781</v>
       </c>
       <c r="E222" t="n">
-        <v>8741</v>
+        <v>0.301948570515892</v>
       </c>
       <c r="F222" t="n">
         <v>18.3</v>
@@ -9264,7 +9264,7 @@
         <v>631.2</v>
       </c>
       <c r="E223" t="n">
-        <v>11769.8</v>
+        <v>0.05089912103862592</v>
       </c>
       <c r="F223" t="n">
         <v>22.6</v>
@@ -9304,7 +9304,7 @@
         <v>13608</v>
       </c>
       <c r="E224" t="n">
-        <v>-1214</v>
+        <v>1.097950621268356</v>
       </c>
       <c r="F224" t="n">
         <v>9.199999999999999</v>
@@ -9344,7 +9344,7 @@
         <v>746</v>
       </c>
       <c r="E225" t="n">
-        <v>11636</v>
+        <v>0.06024874818284607</v>
       </c>
       <c r="F225" t="n">
         <v>6.3</v>
@@ -9384,7 +9384,7 @@
         <v>230</v>
       </c>
       <c r="E226" t="n">
-        <v>12138</v>
+        <v>0.01859637774902976</v>
       </c>
       <c r="F226" t="n">
         <v>4.9</v>
@@ -9424,7 +9424,7 @@
         <v>1630.6</v>
       </c>
       <c r="E227" t="n">
-        <v>10726.8</v>
+        <v>0.1319533235146552</v>
       </c>
       <c r="F227" t="n">
         <v>42.3</v>
@@ -9464,7 +9464,7 @@
         <v>659.9</v>
       </c>
       <c r="E228" t="n">
-        <v>11657.5</v>
+        <v>0.0535746180200367</v>
       </c>
       <c r="F228" t="n">
         <v>50.8</v>
@@ -9504,7 +9504,7 @@
         <v>1519.9</v>
       </c>
       <c r="E229" t="n">
-        <v>10773.5</v>
+        <v>0.1236354466624368</v>
       </c>
       <c r="F229" t="n">
         <v>28.3</v>
@@ -9544,7 +9544,7 @@
         <v>1166</v>
       </c>
       <c r="E230" t="n">
-        <v>11056</v>
+        <v>0.0954017345769923</v>
       </c>
       <c r="F230" t="n">
         <v>6.3</v>
@@ -9584,7 +9584,7 @@
         <v>1006</v>
       </c>
       <c r="E231" t="n">
-        <v>11185</v>
+        <v>0.08251989172340252</v>
       </c>
       <c r="F231" t="n">
         <v>14.2</v>
@@ -9624,7 +9624,7 @@
         <v>760.8</v>
       </c>
       <c r="E232" t="n">
-        <v>11407.5</v>
+        <v>0.06252311333547003</v>
       </c>
       <c r="F232" t="n">
         <v>26.3</v>
@@ -9664,7 +9664,7 @@
         <v>1274</v>
       </c>
       <c r="E233" t="n">
-        <v>10803</v>
+        <v>0.1054897739504844</v>
       </c>
       <c r="F233" t="n">
         <v>5.5</v>
@@ -9704,7 +9704,7 @@
         <v>2693</v>
       </c>
       <c r="E234" t="n">
-        <v>9337</v>
+        <v>0.2238570241064007</v>
       </c>
       <c r="F234" t="n">
         <v>-0.4</v>
@@ -9744,7 +9744,7 @@
         <v>824.2</v>
       </c>
       <c r="E235" t="n">
-        <v>11189.6</v>
+        <v>0.06860443822936957</v>
       </c>
       <c r="F235" t="n">
         <v>-8.699999999999999</v>
@@ -9784,7 +9784,7 @@
         <v>1034.9</v>
       </c>
       <c r="E236" t="n">
-        <v>10969.2</v>
+        <v>0.08621221082796712</v>
       </c>
       <c r="F236" t="n">
         <v>34.9</v>
@@ -9824,7 +9824,7 @@
         <v>2015</v>
       </c>
       <c r="E237" t="n">
-        <v>9763</v>
+        <v>0.1710816777041943</v>
       </c>
       <c r="F237" t="n">
         <v>57</v>
@@ -9864,7 +9864,7 @@
         <v>1118.5</v>
       </c>
       <c r="E238" t="n">
-        <v>10624.4</v>
+        <v>0.09524904410324536</v>
       </c>
       <c r="F238" t="n">
         <v>16.1</v>
@@ -9904,7 +9904,7 @@
         <v>270</v>
       </c>
       <c r="E239" t="n">
-        <v>11386</v>
+        <v>0.02316403568977351</v>
       </c>
       <c r="F239" t="n">
         <v>129.3</v>
@@ -9944,7 +9944,7 @@
         <v>978.5</v>
       </c>
       <c r="E240" t="n">
-        <v>10640.3</v>
+        <v>0.08421695872207113</v>
       </c>
       <c r="F240" t="n">
         <v>0.6</v>
@@ -9984,7 +9984,7 @@
         <v>1372.4</v>
       </c>
       <c r="E241" t="n">
-        <v>10037.6</v>
+        <v>0.1202804557405785</v>
       </c>
       <c r="F241" t="n">
         <v>13</v>
@@ -10024,7 +10024,7 @@
         <v>908.8</v>
       </c>
       <c r="E242" t="n">
-        <v>10477.4</v>
+        <v>0.07981591751418382</v>
       </c>
       <c r="F242" t="n">
         <v>18.5</v>
@@ -10064,7 +10064,7 @@
         <v>1290.4</v>
       </c>
       <c r="E243" t="n">
-        <v>10004.6</v>
+        <v>0.1142452412571935</v>
       </c>
       <c r="F243" t="n">
         <v>11.2</v>
@@ -10104,7 +10104,7 @@
         <v>1033.2</v>
       </c>
       <c r="E244" t="n">
-        <v>10167.4</v>
+        <v>0.09224505830044818</v>
       </c>
       <c r="F244" t="n">
         <v>17.3</v>
@@ -10144,7 +10144,7 @@
         <v>1298.8</v>
       </c>
       <c r="E245" t="n">
-        <v>9885.900000000001</v>
+        <v>0.1161229179146512</v>
       </c>
       <c r="F245" t="n">
         <v>1.2</v>
@@ -10184,7 +10184,7 @@
         <v>3005</v>
       </c>
       <c r="E246" t="n">
-        <v>8137</v>
+        <v>0.2697002333512835</v>
       </c>
       <c r="F246" t="n">
         <v>13.8</v>
@@ -10224,7 +10224,7 @@
         <v>409</v>
       </c>
       <c r="E247" t="n">
-        <v>10732</v>
+        <v>0.03671124674625258</v>
       </c>
       <c r="F247" t="n">
         <v>15.3</v>
@@ -10264,7 +10264,7 @@
         <v>897</v>
       </c>
       <c r="E248" t="n">
-        <v>10241.3</v>
+        <v>0.08053293590583842</v>
       </c>
       <c r="F248" t="n">
         <v>21.7</v>
@@ -10304,7 +10304,7 @@
         <v>616.1</v>
       </c>
       <c r="E249" t="n">
-        <v>10381.9</v>
+        <v>0.05601927623204219</v>
       </c>
       <c r="F249" t="n">
         <v>8.800000000000001</v>
@@ -10344,7 +10344,7 @@
         <v>1556.1</v>
       </c>
       <c r="E250" t="n">
-        <v>9425.6</v>
+        <v>0.1416993725925858</v>
       </c>
       <c r="F250" t="n">
         <v>-18.3</v>
@@ -10384,7 +10384,7 @@
         <v>1165</v>
       </c>
       <c r="E251" t="n">
-        <v>9793</v>
+        <v>0.1063150209892316</v>
       </c>
       <c r="F251" t="n">
         <v>61.2</v>
@@ -10424,7 +10424,7 @@
         <v>1590.8</v>
       </c>
       <c r="E252" t="n">
-        <v>9285.5</v>
+        <v>0.1462629754604047</v>
       </c>
       <c r="F252" t="n">
         <v>26.5</v>
@@ -10464,7 +10464,7 @@
         <v>1995</v>
       </c>
       <c r="E253" t="n">
-        <v>8793</v>
+        <v>0.1849276974416018</v>
       </c>
       <c r="F253" t="n">
         <v>14.3</v>
@@ -10504,7 +10504,7 @@
         <v>1283</v>
       </c>
       <c r="E254" t="n">
-        <v>9475</v>
+        <v>0.1192600855177542</v>
       </c>
       <c r="F254" t="n">
         <v>3.1</v>
@@ -10544,7 +10544,7 @@
         <v>3060</v>
       </c>
       <c r="E255" t="n">
-        <v>7630</v>
+        <v>0.2862488306828812</v>
       </c>
       <c r="F255" t="n">
         <v>-0.8</v>
@@ -10584,7 +10584,7 @@
         <v>1517</v>
       </c>
       <c r="E256" t="n">
-        <v>9110</v>
+        <v>0.14274960007528</v>
       </c>
       <c r="F256" t="n">
         <v>37.7</v>
@@ -10624,7 +10624,7 @@
         <v>857</v>
       </c>
       <c r="E257" t="n">
-        <v>9619</v>
+        <v>0.08180603283696067</v>
       </c>
       <c r="F257" t="n">
         <v>23.6</v>
@@ -10664,7 +10664,7 @@
         <v>2099.1</v>
       </c>
       <c r="E258" t="n">
-        <v>8223.9</v>
+        <v>0.2033420517291485</v>
       </c>
       <c r="F258" t="n">
         <v>16.6</v>
@@ -10704,7 +10704,7 @@
         <v>952.8</v>
       </c>
       <c r="E259" t="n">
-        <v>9287.900000000001</v>
+        <v>0.093040514808558</v>
       </c>
       <c r="F259" t="n">
         <v>13</v>
@@ -10744,7 +10744,7 @@
         <v>2607</v>
       </c>
       <c r="E260" t="n">
-        <v>7594</v>
+        <v>0.2555631800803843</v>
       </c>
       <c r="F260" t="n">
         <v>35.4</v>
@@ -10784,7 +10784,7 @@
         <v>990.3</v>
       </c>
       <c r="E261" t="n">
-        <v>9100.5</v>
+        <v>0.09813889879890594</v>
       </c>
       <c r="F261" t="n">
         <v>2</v>
@@ -10824,7 +10824,7 @@
         <v>1403</v>
       </c>
       <c r="E262" t="n">
-        <v>8507</v>
+        <v>0.1415741675075681</v>
       </c>
       <c r="F262" t="n">
         <v>21.3</v>
@@ -10864,7 +10864,7 @@
         <v>383.5</v>
       </c>
       <c r="E263" t="n">
-        <v>9520.1</v>
+        <v>0.03872329254008643</v>
       </c>
       <c r="F263" t="n">
         <v>12.6</v>
@@ -10904,7 +10904,7 @@
         <v>1220.5</v>
       </c>
       <c r="E264" t="n">
-        <v>8642.6</v>
+        <v>0.1237440561283978</v>
       </c>
       <c r="F264" t="n">
         <v>10.8</v>
@@ -10944,7 +10944,7 @@
         <v>990</v>
       </c>
       <c r="E265" t="n">
-        <v>8863</v>
+        <v>0.1004770120775398</v>
       </c>
       <c r="F265" t="n">
         <v>19.2</v>
@@ -10984,7 +10984,7 @@
         <v>532.4</v>
       </c>
       <c r="E266" t="n">
-        <v>9305.300000000001</v>
+        <v>0.05411834066905882</v>
       </c>
       <c r="F266" t="n">
         <v>37.9</v>
@@ -11024,7 +11024,7 @@
         <v>221.6</v>
       </c>
       <c r="E267" t="n">
-        <v>9563.699999999999</v>
+        <v>0.02264621421928812</v>
       </c>
       <c r="F267" t="n">
         <v>12.4</v>
@@ -11064,7 +11064,7 @@
         <v>648</v>
       </c>
       <c r="E268" t="n">
-        <v>9074</v>
+        <v>0.06665295206747583</v>
       </c>
       <c r="F268" t="n">
         <v>1.2</v>
@@ -11104,7 +11104,7 @@
         <v>1386</v>
       </c>
       <c r="E269" t="n">
-        <v>8330</v>
+        <v>0.1426512968299712</v>
       </c>
       <c r="F269" t="n">
         <v>13.9</v>
@@ -11144,7 +11144,7 @@
         <v>2062</v>
       </c>
       <c r="E270" t="n">
-        <v>7571</v>
+        <v>0.21405584968338</v>
       </c>
       <c r="F270" t="n">
         <v>25.4</v>
@@ -11184,7 +11184,7 @@
         <v>2945.6</v>
       </c>
       <c r="E271" t="n">
-        <v>6684.1</v>
+        <v>0.3058869954411871</v>
       </c>
       <c r="F271" t="n">
         <v>27.8</v>
@@ -11224,7 +11224,7 @@
         <v>460.6</v>
       </c>
       <c r="E272" t="n">
-        <v>9074.9</v>
+        <v>0.04830370719941272</v>
       </c>
       <c r="F272" t="n">
         <v>15.4</v>
@@ -11264,7 +11264,7 @@
         <v>544</v>
       </c>
       <c r="E273" t="n">
-        <v>8980</v>
+        <v>0.05711885762284755</v>
       </c>
       <c r="F273" t="n">
         <v>1.7</v>
@@ -11304,7 +11304,7 @@
         <v>1022.5</v>
       </c>
       <c r="E274" t="n">
-        <v>8433</v>
+        <v>0.1081381206705092</v>
       </c>
       <c r="F274" t="n">
         <v>16.7</v>
@@ -11344,7 +11344,7 @@
         <v>219.3</v>
       </c>
       <c r="E275" t="n">
-        <v>9216.800000000001</v>
+        <v>0.0232405336950647</v>
       </c>
       <c r="F275" t="n">
         <v>13.1</v>
@@ -11384,7 +11384,7 @@
         <v>2567.7</v>
       </c>
       <c r="E276" t="n">
-        <v>6789.2</v>
+        <v>0.2744178093171884</v>
       </c>
       <c r="F276" t="n">
         <v>16.4</v>
@@ -11422,7 +11422,7 @@
         <v>1534.3</v>
       </c>
       <c r="E277" t="n">
-        <v>7807.3</v>
+        <v>0.1642438126231053</v>
       </c>
       <c r="F277" t="n">
         <v>30.4</v>
@@ -11462,7 +11462,7 @@
         <v>407.9</v>
       </c>
       <c r="E278" t="n">
-        <v>8830.9</v>
+        <v>0.04415075550937352</v>
       </c>
       <c r="F278" t="n">
         <v>-21</v>
@@ -11502,7 +11502,7 @@
         <v>570</v>
       </c>
       <c r="E279" t="n">
-        <v>8659</v>
+        <v>0.0617618376855564</v>
       </c>
       <c r="F279" t="n">
         <v>29.5</v>
@@ -11542,7 +11542,7 @@
         <v>1241</v>
       </c>
       <c r="E280" t="n">
-        <v>7980</v>
+        <v>0.1345841015074287</v>
       </c>
       <c r="F280" t="n">
         <v>30.1</v>
@@ -11582,7 +11582,7 @@
         <v>4058</v>
       </c>
       <c r="E281" t="n">
-        <v>5110</v>
+        <v>0.4426265270506108</v>
       </c>
       <c r="F281" t="n">
         <v>11.2</v>
@@ -11622,7 +11622,7 @@
         <v>1838.5</v>
       </c>
       <c r="E282" t="n">
-        <v>7285.5</v>
+        <v>0.2015015344147304</v>
       </c>
       <c r="F282" t="n">
         <v>332.2</v>
@@ -11662,7 +11662,7 @@
         <v>1674.4</v>
       </c>
       <c r="E283" t="n">
-        <v>7365.5</v>
+        <v>0.1852232878682286</v>
       </c>
       <c r="F283" t="n">
         <v>30</v>
@@ -11702,7 +11702,7 @@
         <v>1477.5</v>
       </c>
       <c r="E284" t="n">
-        <v>7493.799999999999</v>
+        <v>0.1646918506793887</v>
       </c>
       <c r="F284" t="n">
         <v>10.1</v>
@@ -11742,7 +11742,7 @@
         <v>1236.7</v>
       </c>
       <c r="E285" t="n">
-        <v>7733.400000000001</v>
+        <v>0.1378691430418836</v>
       </c>
       <c r="F285" t="n">
         <v>18.6</v>
@@ -11782,7 +11782,7 @@
         <v>893</v>
       </c>
       <c r="E286" t="n">
-        <v>8065</v>
+        <v>0.09968743022996204</v>
       </c>
       <c r="F286" t="n">
         <v>18.7</v>
@@ -11822,7 +11822,7 @@
         <v>73.8</v>
       </c>
       <c r="E287" t="n">
-        <v>8857.200000000001</v>
+        <v>0.008263352368155862</v>
       </c>
       <c r="F287" t="n">
         <v>-4.5</v>
@@ -11862,7 +11862,7 @@
         <v>2699</v>
       </c>
       <c r="E288" t="n">
-        <v>6104</v>
+        <v>0.3066000227195274</v>
       </c>
       <c r="F288" t="n">
         <v>8.9</v>
@@ -11902,7 +11902,7 @@
         <v>833.6</v>
       </c>
       <c r="E289" t="n">
-        <v>7956.799999999999</v>
+        <v>0.09483072442664726</v>
       </c>
       <c r="F289" t="n">
         <v>24.2</v>
@@ -11942,7 +11942,7 @@
         <v>2974.7</v>
       </c>
       <c r="E290" t="n">
-        <v>5807.400000000001</v>
+        <v>0.3387230844558818</v>
       </c>
       <c r="F290" t="n">
         <v>199.3</v>
@@ -11982,7 +11982,7 @@
         <v>535.6</v>
       </c>
       <c r="E291" t="n">
-        <v>8100.5</v>
+        <v>0.06201873530876206</v>
       </c>
       <c r="F291" t="n">
         <v>67.59999999999999</v>
@@ -12022,7 +12022,7 @@
         <v>985.8</v>
       </c>
       <c r="E292" t="n">
-        <v>7645.099999999999</v>
+        <v>0.1142175207684019</v>
       </c>
       <c r="F292" t="n">
         <v>40.3</v>
@@ -12062,7 +12062,7 @@
         <v>1890</v>
       </c>
       <c r="E293" t="n">
-        <v>6647</v>
+        <v>0.2213892468080122</v>
       </c>
       <c r="F293" t="n">
         <v>51</v>
@@ -12102,7 +12102,7 @@
         <v>965.5</v>
       </c>
       <c r="E294" t="n">
-        <v>7558.299999999999</v>
+        <v>0.1132710762805322</v>
       </c>
       <c r="F294" t="n">
         <v>14.8</v>
@@ -12142,7 +12142,7 @@
         <v>1002</v>
       </c>
       <c r="E295" t="n">
-        <v>7474</v>
+        <v>0.1182161396885323</v>
       </c>
       <c r="F295" t="n">
         <v>-6.3</v>
@@ -12182,7 +12182,7 @@
         <v>1045</v>
       </c>
       <c r="E296" t="n">
-        <v>7408</v>
+        <v>0.123624748609961</v>
       </c>
       <c r="F296" t="n">
         <v>40.3</v>
@@ -12222,7 +12222,7 @@
         <v>1831.2</v>
       </c>
       <c r="E297" t="n">
-        <v>6594.3</v>
+        <v>0.2173402171977924</v>
       </c>
       <c r="F297" t="n">
         <v>51.4</v>
@@ -12262,7 +12262,7 @@
         <v>740.1</v>
       </c>
       <c r="E298" t="n">
-        <v>7668.199999999999</v>
+        <v>0.08802017054577026</v>
       </c>
       <c r="F298" t="n">
         <v>20.6</v>
@@ -12302,7 +12302,7 @@
         <v>410</v>
       </c>
       <c r="E299" t="n">
-        <v>7965</v>
+        <v>0.04895522388059702</v>
       </c>
       <c r="F299" t="n">
         <v>14.9</v>
@@ -12342,7 +12342,7 @@
         <v>2770</v>
       </c>
       <c r="E300" t="n">
-        <v>5559</v>
+        <v>0.3325729379277224</v>
       </c>
       <c r="F300" t="n">
         <v>-0.9</v>
@@ -12382,7 +12382,7 @@
         <v>1300.3</v>
       </c>
       <c r="E301" t="n">
-        <v>7015.7</v>
+        <v>0.1563612313612314</v>
       </c>
       <c r="F301" t="n">
         <v>14.8</v>
@@ -12422,7 +12422,7 @@
         <v>3024</v>
       </c>
       <c r="E302" t="n">
-        <v>5273</v>
+        <v>0.3644690852115222</v>
       </c>
       <c r="F302" t="n">
         <v>11.5</v>
@@ -12462,7 +12462,7 @@
         <v>493.9</v>
       </c>
       <c r="E303" t="n">
-        <v>7758.1</v>
+        <v>0.05985215705283568</v>
       </c>
       <c r="F303" t="n">
         <v>16.1</v>
@@ -12502,7 +12502,7 @@
         <v>1126.3</v>
       </c>
       <c r="E304" t="n">
-        <v>7119.599999999999</v>
+        <v>0.1365890927612511</v>
       </c>
       <c r="F304" t="n">
         <v>21.6</v>
@@ -12542,7 +12542,7 @@
         <v>435</v>
       </c>
       <c r="E305" t="n">
-        <v>7795</v>
+        <v>0.05285540704738761</v>
       </c>
       <c r="F305" t="n">
         <v>10.5</v>
@@ -12582,7 +12582,7 @@
         <v>906.8</v>
       </c>
       <c r="E306" t="n">
-        <v>7302.599999999999</v>
+        <v>0.110458742417229</v>
       </c>
       <c r="F306" t="n">
         <v>17.2</v>
@@ -12622,7 +12622,7 @@
         <v>1245</v>
       </c>
       <c r="E307" t="n">
-        <v>6926</v>
+        <v>0.1523681311956921</v>
       </c>
       <c r="F307" t="n">
         <v>10.2</v>
@@ -12662,7 +12662,7 @@
         <v>876.3</v>
       </c>
       <c r="E308" t="n">
-        <v>7126.4</v>
+        <v>0.1095005435665463</v>
       </c>
       <c r="F308" t="n">
         <v>2.6</v>
@@ -12702,7 +12702,7 @@
         <v>409.4</v>
       </c>
       <c r="E309" t="n">
-        <v>7543.1</v>
+        <v>0.05148066645708897</v>
       </c>
       <c r="F309" t="n">
         <v>16</v>
@@ -12742,7 +12742,7 @@
         <v>328.8</v>
       </c>
       <c r="E310" t="n">
-        <v>7623</v>
+        <v>0.04134912849920773</v>
       </c>
       <c r="F310" t="n">
         <v>25.8</v>
@@ -12782,7 +12782,7 @@
         <v>712.5</v>
       </c>
       <c r="E311" t="n">
-        <v>7213.6</v>
+        <v>0.08989288553008415</v>
       </c>
       <c r="F311" t="n">
         <v>44.8</v>
@@ -12822,7 +12822,7 @@
         <v>1123.8</v>
       </c>
       <c r="E312" t="n">
-        <v>6783.3</v>
+        <v>0.1421254315741549</v>
       </c>
       <c r="F312" t="n">
         <v>18.3</v>
@@ -12862,7 +12862,7 @@
         <v>904</v>
       </c>
       <c r="E313" t="n">
-        <v>6978</v>
+        <v>0.1146917026135499</v>
       </c>
       <c r="F313" t="n">
         <v>-9</v>
@@ -12902,7 +12902,7 @@
         <v>1333.5</v>
       </c>
       <c r="E314" t="n">
-        <v>6548</v>
+        <v>0.1691936814058238</v>
       </c>
       <c r="F314" t="n">
         <v>-33.5</v>
@@ -12942,7 +12942,7 @@
         <v>609</v>
       </c>
       <c r="E315" t="n">
-        <v>7249.9</v>
+        <v>0.07749176093346398</v>
       </c>
       <c r="F315" t="n">
         <v>5.3</v>
@@ -12982,7 +12982,7 @@
         <v>3624.1</v>
       </c>
       <c r="E316" t="n">
-        <v>4215.299999999999</v>
+        <v>0.4622930326300482</v>
       </c>
       <c r="F316" t="n">
         <v>513.7</v>
@@ -13020,7 +13020,7 @@
         <v>558</v>
       </c>
       <c r="E317" t="n">
-        <v>7264</v>
+        <v>0.0713372538992585</v>
       </c>
       <c r="F317" t="n">
         <v>3.5</v>
@@ -13060,7 +13060,7 @@
         <v>2037</v>
       </c>
       <c r="E318" t="n">
-        <v>5739</v>
+        <v>0.2619598765432099</v>
       </c>
       <c r="F318" t="n">
         <v>16.5</v>
@@ -13100,7 +13100,7 @@
         <v>841.1</v>
       </c>
       <c r="E319" t="n">
-        <v>6889.2</v>
+        <v>0.1088056090966715</v>
       </c>
       <c r="F319" t="n">
         <v>16.1</v>
@@ -13140,7 +13140,7 @@
         <v>459.9</v>
       </c>
       <c r="E320" t="n">
-        <v>7260.900000000001</v>
+        <v>0.0595663661796705</v>
       </c>
       <c r="F320" t="n">
         <v>31.5</v>
@@ -13180,7 +13180,7 @@
         <v>3082.9</v>
       </c>
       <c r="E321" t="n">
-        <v>4589</v>
+        <v>0.4018430897170193</v>
       </c>
       <c r="F321" t="n">
         <v>23.6</v>
@@ -13220,7 +13220,7 @@
         <v>772.4</v>
       </c>
       <c r="E322" t="n">
-        <v>6883.700000000001</v>
+        <v>0.1008868745183579</v>
       </c>
       <c r="F322" t="n">
         <v>25.7</v>
@@ -13260,7 +13260,7 @@
         <v>312.9</v>
       </c>
       <c r="E323" t="n">
-        <v>7341.3</v>
+        <v>0.04087951712785137</v>
       </c>
       <c r="F323" t="n">
         <v>-5.6</v>
@@ -13300,7 +13300,7 @@
         <v>159.6</v>
       </c>
       <c r="E324" t="n">
-        <v>7453.4</v>
+        <v>0.02096414028635229</v>
       </c>
       <c r="F324" t="n">
         <v>39.4</v>
@@ -13340,7 +13340,7 @@
         <v>2342.1</v>
       </c>
       <c r="E325" t="n">
-        <v>5232.299999999999</v>
+        <v>0.3092126108998733</v>
       </c>
       <c r="F325" t="n">
         <v>22.1</v>
@@ -13378,7 +13378,7 @@
         <v>2625</v>
       </c>
       <c r="E326" t="n">
-        <v>4936</v>
+        <v>0.3471762994312921</v>
       </c>
       <c r="F326" t="n">
         <v>3.1</v>
@@ -13418,7 +13418,7 @@
         <v>653</v>
       </c>
       <c r="E327" t="n">
-        <v>6894.1</v>
+        <v>0.08652330034052814</v>
       </c>
       <c r="F327" t="n">
         <v>26.1</v>
@@ -13458,7 +13458,7 @@
         <v>1353</v>
       </c>
       <c r="E328" t="n">
-        <v>6185</v>
+        <v>0.179490581055983</v>
       </c>
       <c r="F328" t="n">
         <v>12.8</v>
@@ -13498,7 +13498,7 @@
         <v>663</v>
       </c>
       <c r="E329" t="n">
-        <v>6838.3</v>
+        <v>0.08838467998880194</v>
       </c>
       <c r="F329" t="n">
         <v>22.4</v>
@@ -13538,7 +13538,7 @@
         <v>1995</v>
       </c>
       <c r="E330" t="n">
-        <v>5467</v>
+        <v>0.2673545966228893</v>
       </c>
       <c r="F330" t="n">
         <v>-5.7</v>
@@ -13578,7 +13578,7 @@
         <v>1467</v>
       </c>
       <c r="E331" t="n">
-        <v>5980</v>
+        <v>0.1969920773465825</v>
       </c>
       <c r="F331" t="n">
         <v>13.5</v>
@@ -13618,7 +13618,7 @@
         <v>277</v>
       </c>
       <c r="E332" t="n">
-        <v>7117</v>
+        <v>0.03746280768190425</v>
       </c>
       <c r="F332" t="n">
         <v>4.8</v>
@@ -13658,7 +13658,7 @@
         <v>572.6</v>
       </c>
       <c r="E333" t="n">
-        <v>6813.5</v>
+        <v>0.07752399777961305</v>
       </c>
       <c r="F333" t="n">
         <v>15.5</v>
@@ -13698,7 +13698,7 @@
         <v>710</v>
       </c>
       <c r="E334" t="n">
-        <v>6631</v>
+        <v>0.09671706851927531</v>
       </c>
       <c r="F334" t="n">
         <v>9.199999999999999</v>
@@ -13738,7 +13738,7 @@
         <v>1390.4</v>
       </c>
       <c r="E335" t="n">
-        <v>5927.9</v>
+        <v>0.1899894784307831</v>
       </c>
       <c r="F335" t="n">
         <v>30.6</v>
@@ -13778,7 +13778,7 @@
         <v>204</v>
       </c>
       <c r="E336" t="n">
-        <v>6952</v>
+        <v>0.02850754611514813</v>
       </c>
       <c r="F336" t="n">
         <v>9.1</v>
@@ -13818,7 +13818,7 @@
         <v>1480</v>
       </c>
       <c r="E337" t="n">
-        <v>5647</v>
+        <v>0.2076610074365091</v>
       </c>
       <c r="F337" t="n">
         <v>-6.3</v>
@@ -13858,7 +13858,7 @@
         <v>1111</v>
       </c>
       <c r="E338" t="n">
-        <v>6005.3</v>
+        <v>0.1561204558548684</v>
       </c>
       <c r="F338" t="n">
         <v>0.4</v>
@@ -13898,7 +13898,7 @@
         <v>455</v>
       </c>
       <c r="E339" t="n">
-        <v>6583</v>
+        <v>0.06464904802500711</v>
       </c>
       <c r="F339" t="n">
         <v>0.2</v>
@@ -13938,7 +13938,7 @@
         <v>1358.1</v>
       </c>
       <c r="E340" t="n">
-        <v>5639.299999999999</v>
+        <v>0.1940863749392631</v>
       </c>
       <c r="F340" t="n">
         <v>10.5</v>
@@ -13978,7 +13978,7 @@
         <v>2319</v>
       </c>
       <c r="E341" t="n">
-        <v>4667</v>
+        <v>0.3319496135127398</v>
       </c>
       <c r="F341" t="n">
         <v>-9</v>
@@ -14018,7 +14018,7 @@
         <v>2078.3</v>
       </c>
       <c r="E342" t="n">
-        <v>4840.4</v>
+        <v>0.3003888013644182</v>
       </c>
       <c r="F342" t="n">
         <v>19.2</v>
@@ -14058,7 +14058,7 @@
         <v>278.5</v>
       </c>
       <c r="E343" t="n">
-        <v>6635.3</v>
+        <v>0.04028175532991987</v>
       </c>
       <c r="F343" t="n">
         <v>26.9</v>
@@ -14098,7 +14098,7 @@
         <v>117</v>
       </c>
       <c r="E344" t="n">
-        <v>6777</v>
+        <v>0.01697127937336815</v>
       </c>
       <c r="F344" t="n">
         <v>15.1</v>
@@ -14138,7 +14138,7 @@
         <v>144.6</v>
       </c>
       <c r="E345" t="n">
-        <v>6705.9</v>
+        <v>0.02110794832493978</v>
       </c>
       <c r="F345" t="n">
         <v>8</v>
@@ -14178,7 +14178,7 @@
         <v>671.4</v>
       </c>
       <c r="E346" t="n">
-        <v>6101.700000000001</v>
+        <v>0.09912743057093501</v>
       </c>
       <c r="F346" t="n">
         <v>19.1</v>
@@ -14218,7 +14218,7 @@
         <v>269</v>
       </c>
       <c r="E347" t="n">
-        <v>6487.6</v>
+        <v>0.03981292365982891</v>
       </c>
       <c r="F347" t="n">
         <v>-2.9</v>
@@ -14258,7 +14258,7 @@
         <v>1009.6</v>
       </c>
       <c r="E348" t="n">
-        <v>5730.2</v>
+        <v>0.14979672987329</v>
       </c>
       <c r="F348" t="n">
         <v>28.3</v>
@@ -14298,7 +14298,7 @@
         <v>412.9</v>
       </c>
       <c r="E349" t="n">
-        <v>6316.900000000001</v>
+        <v>0.06135397782995036</v>
       </c>
       <c r="F349" t="n">
         <v>22.9</v>
@@ -14338,7 +14338,7 @@
         <v>500.2</v>
       </c>
       <c r="E350" t="n">
-        <v>6135.3</v>
+        <v>0.07538241277974531</v>
       </c>
       <c r="F350" t="n">
         <v>10.6</v>
@@ -14378,7 +14378,7 @@
         <v>2521</v>
       </c>
       <c r="E351" t="n">
-        <v>4084</v>
+        <v>0.3816805450416351</v>
       </c>
       <c r="F351" t="n">
         <v>-0.8</v>
@@ -14418,7 +14418,7 @@
         <v>1575</v>
       </c>
       <c r="E352" t="n">
-        <v>5009</v>
+        <v>0.2392162818955043</v>
       </c>
       <c r="F352" t="n">
         <v>16.5</v>
@@ -14458,7 +14458,7 @@
         <v>381.5</v>
       </c>
       <c r="E353" t="n">
-        <v>6158.9</v>
+        <v>0.05832976576356187</v>
       </c>
       <c r="F353" t="n">
         <v>58.1</v>
@@ -14498,7 +14498,7 @@
         <v>917.1</v>
       </c>
       <c r="E354" t="n">
-        <v>5621.2</v>
+        <v>0.1402658183319823</v>
       </c>
       <c r="F354" t="n">
         <v>58.5</v>
@@ -14538,7 +14538,7 @@
         <v>1545.3</v>
       </c>
       <c r="E355" t="n">
-        <v>4943</v>
+        <v>0.238167162430837</v>
       </c>
       <c r="F355" t="n">
         <v>3</v>
@@ -14578,7 +14578,7 @@
         <v>598.6</v>
       </c>
       <c r="E356" t="n">
-        <v>5862.799999999999</v>
+        <v>0.09264246138607733</v>
       </c>
       <c r="F356" t="n">
         <v>26.5</v>
@@ -14618,7 +14618,7 @@
         <v>428.7</v>
       </c>
       <c r="E357" t="n">
-        <v>5991.7</v>
+        <v>0.0667715407139742</v>
       </c>
       <c r="F357" t="n">
         <v>17.5</v>
@@ -14658,7 +14658,7 @@
         <v>1152.6</v>
       </c>
       <c r="E358" t="n">
-        <v>5263.200000000001</v>
+        <v>0.1796502384737679</v>
       </c>
       <c r="F358" t="n">
         <v>16.1</v>
@@ -14698,7 +14698,7 @@
         <v>59.2</v>
       </c>
       <c r="E359" t="n">
-        <v>6353.400000000001</v>
+        <v>0.009231824844836728</v>
       </c>
       <c r="F359" t="n">
         <v>88.09999999999999</v>
@@ -14738,7 +14738,7 @@
         <v>990</v>
       </c>
       <c r="E360" t="n">
-        <v>5404</v>
+        <v>0.1548326556146387</v>
       </c>
       <c r="F360" t="n">
         <v>10.4</v>
@@ -14778,7 +14778,7 @@
         <v>149</v>
       </c>
       <c r="E361" t="n">
-        <v>6208</v>
+        <v>0.02343872896020135</v>
       </c>
       <c r="F361" t="n">
         <v>4.4</v>
@@ -14818,7 +14818,7 @@
         <v>608</v>
       </c>
       <c r="E362" t="n">
-        <v>5737</v>
+        <v>0.09582348305752561</v>
       </c>
       <c r="F362" t="n">
         <v>27.7</v>
@@ -14858,7 +14858,7 @@
         <v>1096</v>
       </c>
       <c r="E363" t="n">
-        <v>5244</v>
+        <v>0.1728706624605678</v>
       </c>
       <c r="F363" t="n">
         <v>8.6</v>
@@ -14898,7 +14898,7 @@
         <v>1210</v>
       </c>
       <c r="E364" t="n">
-        <v>5109</v>
+        <v>0.1914859946194018</v>
       </c>
       <c r="F364" t="n">
         <v>18.4</v>
@@ -14938,7 +14938,7 @@
         <v>755.3</v>
       </c>
       <c r="E365" t="n">
-        <v>5562.599999999999</v>
+        <v>0.1195492173032178</v>
       </c>
       <c r="F365" t="n">
         <v>12.8</v>
@@ -14978,7 +14978,7 @@
         <v>741.5</v>
       </c>
       <c r="E366" t="n">
-        <v>5568.7</v>
+        <v>0.1175081613894964</v>
       </c>
       <c r="F366" t="n">
         <v>36.8</v>
@@ -15018,7 +15018,7 @@
         <v>418.9</v>
       </c>
       <c r="E367" t="n">
-        <v>5861.3</v>
+        <v>0.06670169739817203</v>
       </c>
       <c r="F367" t="n">
         <v>24.2</v>
@@ -15058,7 +15058,7 @@
         <v>975.3</v>
       </c>
       <c r="E368" t="n">
-        <v>5281.3</v>
+        <v>0.1558833871431768</v>
       </c>
       <c r="F368" t="n">
         <v>42.1</v>
@@ -15098,7 +15098,7 @@
         <v>126.3</v>
       </c>
       <c r="E369" t="n">
-        <v>6102.3</v>
+        <v>0.02027742992004624</v>
       </c>
       <c r="F369" t="n">
         <v>4</v>
@@ -15138,7 +15138,7 @@
         <v>166.7</v>
       </c>
       <c r="E370" t="n">
-        <v>6060</v>
+        <v>0.02677180529012157</v>
       </c>
       <c r="F370" t="n">
         <v>9.300000000000001</v>
@@ -15178,7 +15178,7 @@
         <v>2214</v>
       </c>
       <c r="E371" t="n">
-        <v>4004</v>
+        <v>0.3560630427790286</v>
       </c>
       <c r="F371" t="n">
         <v>15.8</v>
@@ -15218,7 +15218,7 @@
         <v>402.2</v>
       </c>
       <c r="E372" t="n">
-        <v>5802.3</v>
+        <v>0.0648239181239423</v>
       </c>
       <c r="F372" t="n">
         <v>12.2</v>
@@ -15258,7 +15258,7 @@
         <v>177.8</v>
       </c>
       <c r="E373" t="n">
-        <v>5972.8</v>
+        <v>0.02890774883751179</v>
       </c>
       <c r="F373" t="n">
         <v>-0.8</v>
@@ -15298,7 +15298,7 @@
         <v>643</v>
       </c>
       <c r="E374" t="n">
-        <v>5495.3</v>
+        <v>0.1047521300685858</v>
       </c>
       <c r="F374" t="n">
         <v>21.5</v>
@@ -15338,7 +15338,7 @@
         <v>502.6</v>
       </c>
       <c r="E375" t="n">
-        <v>5603.7</v>
+        <v>0.08230843555016949</v>
       </c>
       <c r="F375" t="n">
         <v>10.9</v>
@@ -15378,7 +15378,7 @@
         <v>1858.7</v>
       </c>
       <c r="E376" t="n">
-        <v>4247.1</v>
+        <v>0.3044154738117855</v>
       </c>
       <c r="F376" t="n">
         <v>-2.8</v>
@@ -15418,7 +15418,7 @@
         <v>244.2</v>
       </c>
       <c r="E377" t="n">
-        <v>5855.7</v>
+        <v>0.04003344317119953</v>
       </c>
       <c r="F377" t="n">
         <v>-5.7</v>
@@ -15458,7 +15458,7 @@
         <v>1295</v>
       </c>
       <c r="E378" t="n">
-        <v>4785</v>
+        <v>0.2129934210526316</v>
       </c>
       <c r="F378" t="n">
         <v>16.1</v>
@@ -15498,7 +15498,7 @@
         <v>457.4</v>
       </c>
       <c r="E379" t="n">
-        <v>5586.700000000001</v>
+        <v>0.07567710659982461</v>
       </c>
       <c r="F379" t="n">
         <v>5.7</v>
@@ -15538,7 +15538,7 @@
         <v>1833</v>
       </c>
       <c r="E380" t="n">
-        <v>4194</v>
+        <v>0.3041314086610254</v>
       </c>
       <c r="F380" t="n">
         <v>47.7</v>
@@ -15578,7 +15578,7 @@
         <v>925</v>
       </c>
       <c r="E381" t="n">
-        <v>5085.9</v>
+        <v>0.1538871050924155</v>
       </c>
       <c r="F381" t="n">
         <v>6.4</v>
@@ -15618,7 +15618,7 @@
         <v>743.4</v>
       </c>
       <c r="E382" t="n">
-        <v>5254.6</v>
+        <v>0.1239413137712571</v>
       </c>
       <c r="F382" t="n">
         <v>28.3</v>
@@ -15658,7 +15658,7 @@
         <v>230</v>
       </c>
       <c r="E383" t="n">
-        <v>5666</v>
+        <v>0.03900949796472185</v>
       </c>
       <c r="F383" t="n">
         <v>30.5</v>
@@ -15698,7 +15698,7 @@
         <v>1187</v>
       </c>
       <c r="E384" t="n">
-        <v>4699</v>
+        <v>0.2016649677200136</v>
       </c>
       <c r="F384" t="n">
         <v>4.6</v>
@@ -15738,7 +15738,7 @@
         <v>593.3</v>
       </c>
       <c r="E385" t="n">
-        <v>5252.9</v>
+        <v>0.1014847251205911</v>
       </c>
       <c r="F385" t="n">
         <v>34.5</v>
@@ -15778,7 +15778,7 @@
         <v>242</v>
       </c>
       <c r="E386" t="n">
-        <v>5604</v>
+        <v>0.04139582620595279</v>
       </c>
       <c r="F386" t="n">
         <v>15.3</v>
@@ -15818,7 +15818,7 @@
         <v>120.5</v>
       </c>
       <c r="E387" t="n">
-        <v>5672.5</v>
+        <v>0.02080096668392888</v>
       </c>
       <c r="F387" t="n">
         <v>11.3</v>
@@ -15858,7 +15858,7 @@
         <v>555.6</v>
       </c>
       <c r="E388" t="n">
-        <v>5209.2</v>
+        <v>0.09637801831806828</v>
       </c>
       <c r="F388" t="n">
         <v>4.7</v>
@@ -15898,7 +15898,7 @@
         <v>730</v>
       </c>
       <c r="E389" t="n">
-        <v>5014</v>
+        <v>0.1270891364902507</v>
       </c>
       <c r="F389" t="n">
         <v>6.1</v>
@@ -15938,7 +15938,7 @@
         <v>564.7</v>
       </c>
       <c r="E390" t="n">
-        <v>5160.2</v>
+        <v>0.09863927754196582</v>
       </c>
       <c r="F390" t="n">
         <v>36.9</v>
@@ -15978,7 +15978,7 @@
         <v>1704.6</v>
       </c>
       <c r="E391" t="n">
-        <v>4005.5</v>
+        <v>0.2985236685872401</v>
       </c>
       <c r="F391" t="n">
         <v>31</v>
@@ -16018,7 +16018,7 @@
         <v>378.1</v>
       </c>
       <c r="E392" t="n">
-        <v>5302.599999999999</v>
+        <v>0.06655869875191438</v>
       </c>
       <c r="F392" t="n">
         <v>2.7</v>
@@ -16058,7 +16058,7 @@
         <v>359.1</v>
       </c>
       <c r="E393" t="n">
-        <v>5318</v>
+        <v>0.06325412622641842</v>
       </c>
       <c r="F393" t="n">
         <v>15.3</v>
@@ -16098,7 +16098,7 @@
         <v>1871.5</v>
       </c>
       <c r="E394" t="n">
-        <v>3760.8</v>
+        <v>0.3322798856594997</v>
       </c>
       <c r="F394" t="n">
         <v>49.1</v>
@@ -16138,7 +16138,7 @@
         <v>837</v>
       </c>
       <c r="E395" t="n">
-        <v>4792</v>
+        <v>0.1486942618582341</v>
       </c>
       <c r="F395" t="n">
         <v>1.7</v>
@@ -16178,7 +16178,7 @@
         <v>837</v>
       </c>
       <c r="E396" t="n">
-        <v>4790</v>
+        <v>0.1487471121379065</v>
       </c>
       <c r="F396" t="n">
         <v>26.5</v>
@@ -16218,7 +16218,7 @@
         <v>405.4</v>
       </c>
       <c r="E397" t="n">
-        <v>5203.3</v>
+        <v>0.0722805641235937</v>
       </c>
       <c r="F397" t="n">
         <v>23.2</v>
@@ -16258,7 +16258,7 @@
         <v>85.5</v>
       </c>
       <c r="E398" t="n">
-        <v>5504.9</v>
+        <v>0.0152940755580996</v>
       </c>
       <c r="F398" t="n">
         <v>6.7</v>
@@ -16298,7 +16298,7 @@
         <v>879.7</v>
       </c>
       <c r="E399" t="n">
-        <v>4707</v>
+        <v>0.1574632609590635</v>
       </c>
       <c r="F399" t="n">
         <v>13.7</v>
@@ -16338,7 +16338,7 @@
         <v>189.6</v>
       </c>
       <c r="E400" t="n">
-        <v>5373.099999999999</v>
+        <v>0.0340841677602603</v>
       </c>
       <c r="F400" t="n">
         <v>11.1</v>
@@ -16378,7 +16378,7 @@
         <v>390.7</v>
       </c>
       <c r="E401" t="n">
-        <v>5165.400000000001</v>
+        <v>0.07031910872734472</v>
       </c>
       <c r="F401" t="n">
         <v>23.1</v>
@@ -16418,7 +16418,7 @@
         <v>670.8</v>
       </c>
       <c r="E402" t="n">
-        <v>4881.4</v>
+        <v>0.120816973451965</v>
       </c>
       <c r="F402" t="n">
         <v>14.3</v>
@@ -16458,7 +16458,7 @@
         <v>990.1</v>
       </c>
       <c r="E403" t="n">
-        <v>4556.4</v>
+        <v>0.1785089696204814</v>
       </c>
       <c r="F403" t="n">
         <v>22.2</v>
@@ -16498,7 +16498,7 @@
         <v>1377.5</v>
       </c>
       <c r="E404" t="n">
-        <v>4163.9</v>
+        <v>0.2485833904789403</v>
       </c>
       <c r="F404" t="n">
         <v>20.5</v>
@@ -16538,7 +16538,7 @@
         <v>506.8</v>
       </c>
       <c r="E405" t="n">
-        <v>5027</v>
+        <v>0.09158263760887636</v>
       </c>
       <c r="F405" t="n">
         <v>12.9</v>
@@ -16578,7 +16578,7 @@
         <v>702.5</v>
       </c>
       <c r="E406" t="n">
-        <v>4790.7</v>
+        <v>0.1278853855676109</v>
       </c>
       <c r="F406" t="n">
         <v>16.1</v>
@@ -16618,7 +16618,7 @@
         <v>903</v>
       </c>
       <c r="E407" t="n">
-        <v>4554.7</v>
+        <v>0.1654543122560786</v>
       </c>
       <c r="F407" t="n">
         <v>19.1</v>
@@ -16658,7 +16658,7 @@
         <v>349.4</v>
       </c>
       <c r="E408" t="n">
-        <v>5089</v>
+        <v>0.06424683730508973</v>
       </c>
       <c r="F408" t="n">
         <v>3.1</v>
@@ -16698,7 +16698,7 @@
         <v>650</v>
       </c>
       <c r="E409" t="n">
-        <v>4686.3</v>
+        <v>0.1218072447201244</v>
       </c>
       <c r="F409" t="n">
         <v>31.6</v>
@@ -16738,7 +16738,7 @@
         <v>156</v>
       </c>
       <c r="E410" t="n">
-        <v>5173</v>
+        <v>0.0292737849502721</v>
       </c>
       <c r="F410" t="n">
         <v>2</v>
@@ -16778,7 +16778,7 @@
         <v>1478</v>
       </c>
       <c r="E411" t="n">
-        <v>3827</v>
+        <v>0.2786050895381715</v>
       </c>
       <c r="F411" t="n">
         <v>17.7</v>
@@ -16818,7 +16818,7 @@
         <v>650.6</v>
       </c>
       <c r="E412" t="n">
-        <v>4645</v>
+        <v>0.1228567112319662</v>
       </c>
       <c r="F412" t="n">
         <v>34.5</v>
@@ -16858,7 +16858,7 @@
         <v>1034.4</v>
       </c>
       <c r="E413" t="n">
-        <v>4221.9</v>
+        <v>0.1967924205239427</v>
       </c>
       <c r="F413" t="n">
         <v>30.9</v>
@@ -16898,7 +16898,7 @@
         <v>608.4</v>
       </c>
       <c r="E414" t="n">
-        <v>4646.3</v>
+        <v>0.1157820617732696</v>
       </c>
       <c r="F414" t="n">
         <v>13.4</v>
@@ -16938,7 +16938,7 @@
         <v>573.7</v>
       </c>
       <c r="E415" t="n">
-        <v>4681</v>
+        <v>0.1091784497687784</v>
       </c>
       <c r="F415" t="n">
         <v>34.7</v>
@@ -16978,7 +16978,7 @@
         <v>1503.1</v>
       </c>
       <c r="E416" t="n">
-        <v>3729.4</v>
+        <v>0.2872623029144768</v>
       </c>
       <c r="F416" t="n">
         <v>19.3</v>
@@ -17018,7 +17018,7 @@
         <v>418.7</v>
       </c>
       <c r="E417" t="n">
-        <v>4809.1</v>
+        <v>0.08009105168522131</v>
       </c>
       <c r="F417" t="n">
         <v>8.300000000000001</v>
@@ -17058,7 +17058,7 @@
         <v>234.8</v>
       </c>
       <c r="E418" t="n">
-        <v>4978.2</v>
+        <v>0.04504124304623058</v>
       </c>
       <c r="F418" t="n">
         <v>18.1</v>
@@ -17098,7 +17098,7 @@
         <v>427</v>
       </c>
       <c r="E419" t="n">
-        <v>4768</v>
+        <v>0.0821944177093359</v>
       </c>
       <c r="F419" t="n">
         <v>6.5</v>
@@ -17138,7 +17138,7 @@
         <v>827.5</v>
       </c>
       <c r="E420" t="n">
-        <v>4362.6</v>
+        <v>0.1594381611144294</v>
       </c>
       <c r="F420" t="n">
         <v>6</v>
@@ -17178,7 +17178,7 @@
         <v>737.4</v>
       </c>
       <c r="E421" t="n">
-        <v>4403.900000000001</v>
+        <v>0.14342675976893</v>
       </c>
       <c r="F421" t="n">
         <v>14.2</v>
@@ -17218,7 +17218,7 @@
         <v>241.4</v>
       </c>
       <c r="E422" t="n">
-        <v>4884.700000000001</v>
+        <v>0.04709233140204053</v>
       </c>
       <c r="F422" t="n">
         <v>8.199999999999999</v>
@@ -17258,7 +17258,7 @@
         <v>412.2</v>
       </c>
       <c r="E423" t="n">
-        <v>4709.400000000001</v>
+        <v>0.08048266166822866</v>
       </c>
       <c r="F423" t="n">
         <v>10.3</v>
@@ -17298,7 +17298,7 @@
         <v>2249.6</v>
       </c>
       <c r="E424" t="n">
-        <v>2867.2</v>
+        <v>0.4396497811131957</v>
       </c>
       <c r="F424" t="n">
         <v>11.1</v>
@@ -17338,7 +17338,7 @@
         <v>745</v>
       </c>
       <c r="E425" t="n">
-        <v>4367.9</v>
+        <v>0.1457098711103288</v>
       </c>
       <c r="F425" t="n">
         <v>7.9</v>
@@ -17378,7 +17378,7 @@
         <v>1498.3</v>
       </c>
       <c r="E426" t="n">
-        <v>3610.8</v>
+        <v>0.2932610440194946</v>
       </c>
       <c r="F426" t="n">
         <v>52.3</v>
@@ -17418,7 +17418,7 @@
         <v>402.4</v>
       </c>
       <c r="E427" t="n">
-        <v>4670.200000000001</v>
+        <v>0.07932815518668926</v>
       </c>
       <c r="F427" t="n">
         <v>18.5</v>
@@ -17456,7 +17456,7 @@
         <v>805.8</v>
       </c>
       <c r="E428" t="n">
-        <v>4265</v>
+        <v>0.1589098367121559</v>
       </c>
       <c r="F428" t="n">
         <v>4.9</v>
@@ -17496,7 +17496,7 @@
         <v>943.2</v>
       </c>
       <c r="E429" t="n">
-        <v>4124</v>
+        <v>0.1861383012314493</v>
       </c>
       <c r="F429" t="n">
         <v>34</v>
@@ -17536,7 +17536,7 @@
         <v>800</v>
       </c>
       <c r="E430" t="n">
-        <v>4251</v>
+        <v>0.1583844783211245</v>
       </c>
       <c r="F430" t="n">
         <v>8.199999999999999</v>
@@ -17576,7 +17576,7 @@
         <v>736.5</v>
       </c>
       <c r="E431" t="n">
-        <v>4308.7</v>
+        <v>0.1459803377467692</v>
       </c>
       <c r="F431" t="n">
         <v>8.699999999999999</v>
@@ -17616,7 +17616,7 @@
         <v>421.7</v>
       </c>
       <c r="E432" t="n">
-        <v>4608.3</v>
+        <v>0.08383697813121273</v>
       </c>
       <c r="F432" t="n">
         <v>18.5</v>
@@ -17656,7 +17656,7 @@
         <v>166</v>
       </c>
       <c r="E433" t="n">
-        <v>4838</v>
+        <v>0.03317346123101519</v>
       </c>
       <c r="F433" t="n">
         <v>37.4</v>
@@ -17694,7 +17694,7 @@
         <v>547.5</v>
       </c>
       <c r="E434" t="n">
-        <v>4446.2</v>
+        <v>0.1096381440615175</v>
       </c>
       <c r="F434" t="n">
         <v>10.3</v>
@@ -17734,7 +17734,7 @@
         <v>249.7</v>
       </c>
       <c r="E435" t="n">
-        <v>4738.2</v>
+        <v>0.05006114797810702</v>
       </c>
       <c r="F435" t="n">
         <v>8.199999999999999</v>
@@ -17774,7 +17774,7 @@
         <v>2180.9</v>
       </c>
       <c r="E436" t="n">
-        <v>2795.5</v>
+        <v>0.4382485330761193</v>
       </c>
       <c r="F436" t="n">
         <v>135.3</v>
@@ -17812,7 +17812,7 @@
         <v>124.1</v>
       </c>
       <c r="E437" t="n">
-        <v>4849</v>
+        <v>0.02495425388590617</v>
       </c>
       <c r="F437" t="n">
         <v>16</v>
@@ -17852,7 +17852,7 @@
         <v>258</v>
       </c>
       <c r="E438" t="n">
-        <v>4714</v>
+        <v>0.05189058728881737</v>
       </c>
       <c r="F438" t="n">
         <v>-5.5</v>
@@ -17892,7 +17892,7 @@
         <v>894</v>
       </c>
       <c r="E439" t="n">
-        <v>4047</v>
+        <v>0.1809350333940498</v>
       </c>
       <c r="F439" t="n">
         <v>17.1</v>
@@ -17932,7 +17932,7 @@
         <v>624.5</v>
       </c>
       <c r="E440" t="n">
-        <v>4306.3</v>
+        <v>0.126652875801087</v>
       </c>
       <c r="F440" t="n">
         <v>34.1</v>
@@ -17972,7 +17972,7 @@
         <v>512.5</v>
       </c>
       <c r="E441" t="n">
-        <v>4412.5</v>
+        <v>0.1040609137055838</v>
       </c>
       <c r="F441" t="n">
         <v>19.2</v>
@@ -18012,7 +18012,7 @@
         <v>744.2</v>
       </c>
       <c r="E442" t="n">
-        <v>4179.7</v>
+        <v>0.1511403562216942</v>
       </c>
       <c r="F442" t="n">
         <v>19.3</v>
@@ -18052,7 +18052,7 @@
         <v>230.8</v>
       </c>
       <c r="E443" t="n">
-        <v>4588</v>
+        <v>0.04789574167842617</v>
       </c>
       <c r="F443" t="n">
         <v>48.6</v>
@@ -18092,7 +18092,7 @@
         <v>455.1</v>
       </c>
       <c r="E444" t="n">
-        <v>4344.599999999999</v>
+        <v>0.09481842615163448</v>
       </c>
       <c r="F444" t="n">
         <v>34.7</v>
@@ -18132,7 +18132,7 @@
         <v>680</v>
       </c>
       <c r="E445" t="n">
-        <v>4118</v>
+        <v>0.141725719049604</v>
       </c>
       <c r="F445" t="n">
         <v>-7.4</v>
@@ -18172,7 +18172,7 @@
         <v>824.9</v>
       </c>
       <c r="E446" t="n">
-        <v>3958.2</v>
+        <v>0.1724613744224457</v>
       </c>
       <c r="F446" t="n">
         <v>25.3</v>
@@ -18212,7 +18212,7 @@
         <v>168.8</v>
       </c>
       <c r="E447" t="n">
-        <v>4602.9</v>
+        <v>0.03537523314541988</v>
       </c>
       <c r="F447" t="n">
         <v>12.7</v>
@@ -18252,7 +18252,7 @@
         <v>408.8</v>
       </c>
       <c r="E448" t="n">
-        <v>4361.8</v>
+        <v>0.08569152727120279</v>
       </c>
       <c r="F448" t="n">
         <v>122.8</v>
@@ -18290,7 +18290,7 @@
         <v>2939.7</v>
       </c>
       <c r="E449" t="n">
-        <v>1819.7</v>
+        <v>0.6176618901542211</v>
       </c>
       <c r="F449" t="n">
         <v>7.2</v>
@@ -18330,7 +18330,7 @@
         <v>336.1</v>
       </c>
       <c r="E450" t="n">
-        <v>4406</v>
+        <v>0.0708757723371502</v>
       </c>
       <c r="F450" t="n">
         <v>3</v>
@@ -18370,7 +18370,7 @@
         <v>650.9</v>
       </c>
       <c r="E451" t="n">
-        <v>4090.5</v>
+        <v>0.1372801282321677</v>
       </c>
       <c r="F451" t="n">
         <v>32.7</v>
@@ -18410,7 +18410,7 @@
         <v>252.7</v>
       </c>
       <c r="E452" t="n">
-        <v>4482.7</v>
+        <v>0.05336402415846602</v>
       </c>
       <c r="F452" t="n">
         <v>6.5</v>
@@ -18450,7 +18450,7 @@
         <v>793.6</v>
       </c>
       <c r="E453" t="n">
-        <v>3940.4</v>
+        <v>0.1676383607942543</v>
       </c>
       <c r="F453" t="n">
         <v>15.5</v>
@@ -18490,7 +18490,7 @@
         <v>399.5</v>
       </c>
       <c r="E454" t="n">
-        <v>4304</v>
+        <v>0.08493674922929734</v>
       </c>
       <c r="F454" t="n">
         <v>12.4</v>
@@ -18530,7 +18530,7 @@
         <v>2636.4</v>
       </c>
       <c r="E455" t="n">
-        <v>2053.3</v>
+        <v>0.5621681557455701</v>
       </c>
       <c r="F455" t="n">
         <v>-4</v>
@@ -18570,7 +18570,7 @@
         <v>834.6</v>
       </c>
       <c r="E456" t="n">
-        <v>3813.8</v>
+        <v>0.179545650116169</v>
       </c>
       <c r="F456" t="n">
         <v>3.3</v>
@@ -18610,7 +18610,7 @@
         <v>91.90000000000001</v>
       </c>
       <c r="E457" t="n">
-        <v>4549.900000000001</v>
+        <v>0.01979835408677668</v>
       </c>
       <c r="F457" t="n">
         <v>-12.7</v>
@@ -18650,7 +18650,7 @@
         <v>445.3</v>
       </c>
       <c r="E458" t="n">
-        <v>4169</v>
+        <v>0.09650434518778579</v>
       </c>
       <c r="F458" t="n">
         <v>49.5</v>
@@ -18690,7 +18690,7 @@
         <v>820.5</v>
       </c>
       <c r="E459" t="n">
-        <v>3781.2</v>
+        <v>0.1783036703826847</v>
       </c>
       <c r="F459" t="n">
         <v>16.7</v>
@@ -18730,7 +18730,7 @@
         <v>134.9</v>
       </c>
       <c r="E460" t="n">
-        <v>4448.6</v>
+        <v>0.02943165703065343</v>
       </c>
       <c r="F460" t="n">
         <v>62.9</v>
@@ -18770,7 +18770,7 @@
         <v>1377</v>
       </c>
       <c r="E461" t="n">
-        <v>3176</v>
+        <v>0.3024379529980233</v>
       </c>
       <c r="F461" t="n">
         <v>63.3</v>
@@ -18810,7 +18810,7 @@
         <v>310.6</v>
       </c>
       <c r="E462" t="n">
-        <v>4238.2</v>
+        <v>0.06828174463594794</v>
       </c>
       <c r="F462" t="n">
         <v>31.9</v>
@@ -18850,7 +18850,7 @@
         <v>610.9</v>
       </c>
       <c r="E463" t="n">
-        <v>3931.1</v>
+        <v>0.1345002201673272</v>
       </c>
       <c r="F463" t="n">
         <v>14.2</v>
@@ -18890,7 +18890,7 @@
         <v>338</v>
       </c>
       <c r="E464" t="n">
-        <v>4202</v>
+        <v>0.07444933920704846</v>
       </c>
       <c r="F464" t="n">
         <v>12.5</v>
@@ -18930,7 +18930,7 @@
         <v>762</v>
       </c>
       <c r="E465" t="n">
-        <v>3764</v>
+        <v>0.168360583296509</v>
       </c>
       <c r="F465" t="n">
         <v>39.7</v>
@@ -18970,7 +18970,7 @@
         <v>450.2</v>
       </c>
       <c r="E466" t="n">
-        <v>4041.3</v>
+        <v>0.1002337749081599</v>
       </c>
       <c r="F466" t="n">
         <v>8.300000000000001</v>
@@ -19010,7 +19010,7 @@
         <v>287.7</v>
       </c>
       <c r="E467" t="n">
-        <v>4185</v>
+        <v>0.06432356294855457</v>
       </c>
       <c r="F467" t="n">
         <v>60</v>
@@ -19050,7 +19050,7 @@
         <v>1003.5</v>
       </c>
       <c r="E468" t="n">
-        <v>3446.7</v>
+        <v>0.225495483349063</v>
       </c>
       <c r="F468" t="n">
         <v>-1.9</v>
@@ -19090,7 +19090,7 @@
         <v>1709.3</v>
       </c>
       <c r="E469" t="n">
-        <v>2718.599999999999</v>
+        <v>0.3860294947943721</v>
       </c>
       <c r="F469" t="n">
         <v>13.4</v>
@@ -19130,7 +19130,7 @@
         <v>12.5</v>
       </c>
       <c r="E470" t="n">
-        <v>4393</v>
+        <v>0.002837362387924186</v>
       </c>
       <c r="F470" t="n">
         <v>-3.6</v>
@@ -19170,7 +19170,7 @@
         <v>121.1</v>
       </c>
       <c r="E471" t="n">
-        <v>4279.7</v>
+        <v>0.02751772405017269</v>
       </c>
       <c r="F471" t="n">
         <v>-28.6</v>
@@ -19210,7 +19210,7 @@
         <v>699.3</v>
       </c>
       <c r="E472" t="n">
-        <v>3692.5</v>
+        <v>0.1592285623206885</v>
       </c>
       <c r="F472" t="n">
         <v>15.8</v>
@@ -19250,7 +19250,7 @@
         <v>497</v>
       </c>
       <c r="E473" t="n">
-        <v>3889.4</v>
+        <v>0.1133047601677914</v>
       </c>
       <c r="F473" t="n">
         <v>15.7</v>
@@ -19290,7 +19290,7 @@
         <v>510.5</v>
       </c>
       <c r="E474" t="n">
-        <v>3846.9</v>
+        <v>0.1171570202414284</v>
       </c>
       <c r="F474" t="n">
         <v>5.8</v>
@@ -19330,7 +19330,7 @@
         <v>409.9</v>
       </c>
       <c r="E475" t="n">
-        <v>3923.9</v>
+        <v>0.09458212192533111</v>
       </c>
       <c r="F475" t="n">
         <v>9.699999999999999</v>
@@ -19370,7 +19370,7 @@
         <v>206.2</v>
       </c>
       <c r="E476" t="n">
-        <v>4124.6</v>
+        <v>0.04761245035559249</v>
       </c>
       <c r="F476" t="n">
         <v>-1.3</v>
@@ -19410,7 +19410,7 @@
         <v>296.1</v>
       </c>
       <c r="E477" t="n">
-        <v>3981.1</v>
+        <v>0.0692275320303002</v>
       </c>
       <c r="F477" t="n">
         <v>38.1</v>
@@ -19450,7 +19450,7 @@
         <v>291.2</v>
       </c>
       <c r="E478" t="n">
-        <v>3963.3</v>
+        <v>0.06844517569632154</v>
       </c>
       <c r="F478" t="n">
         <v>22.9</v>
@@ -19490,7 +19490,7 @@
         <v>171.5</v>
       </c>
       <c r="E479" t="n">
-        <v>4060.9</v>
+        <v>0.04052074473112183</v>
       </c>
       <c r="F479" t="n">
         <v>21.1</v>
@@ -19530,7 +19530,7 @@
         <v>801</v>
       </c>
       <c r="E480" t="n">
-        <v>3429</v>
+        <v>0.1893617021276596</v>
       </c>
       <c r="F480" t="n">
         <v>-6.4</v>
@@ -19570,7 +19570,7 @@
         <v>108.8</v>
       </c>
       <c r="E481" t="n">
-        <v>4115.599999999999</v>
+        <v>0.02575513682416438</v>
       </c>
       <c r="F481" t="n">
         <v>2.7</v>
@@ -19610,7 +19610,7 @@
         <v>498.5</v>
       </c>
       <c r="E482" t="n">
-        <v>3717.8</v>
+        <v>0.1182316248843773</v>
       </c>
       <c r="F482" t="n">
         <v>33.4</v>
@@ -19650,7 +19650,7 @@
         <v>757.5</v>
       </c>
       <c r="E483" t="n">
-        <v>3446.7</v>
+        <v>0.1801769658912516</v>
       </c>
       <c r="F483" t="n">
         <v>14.1</v>
@@ -19690,7 +19690,7 @@
         <v>105.2</v>
       </c>
       <c r="E484" t="n">
-        <v>4095</v>
+        <v>0.02504642636064949</v>
       </c>
       <c r="F484" t="n">
         <v>13.8</v>
@@ -19730,7 +19730,7 @@
         <v>464</v>
       </c>
       <c r="E485" t="n">
-        <v>3730.1</v>
+        <v>0.1106316015354903</v>
       </c>
       <c r="F485" t="n">
         <v>15.4</v>
@@ -19770,7 +19770,7 @@
         <v>802.9</v>
       </c>
       <c r="E486" t="n">
-        <v>3340.2</v>
+        <v>0.1937920880500108</v>
       </c>
       <c r="F486" t="n">
         <v>18</v>
@@ -19810,7 +19810,7 @@
         <v>369.1</v>
       </c>
       <c r="E487" t="n">
-        <v>3763.8</v>
+        <v>0.08930775000604904</v>
       </c>
       <c r="F487" t="n">
         <v>17.6</v>
@@ -19850,7 +19850,7 @@
         <v>441</v>
       </c>
       <c r="E488" t="n">
-        <v>3681.2</v>
+        <v>0.1069817087962738</v>
       </c>
       <c r="F488" t="n">
         <v>7.9</v>
@@ -19890,7 +19890,7 @@
         <v>1375.6</v>
       </c>
       <c r="E489" t="n">
-        <v>2724.3</v>
+        <v>0.3355203785458182</v>
       </c>
       <c r="F489" t="n">
         <v>54.6</v>
@@ -19930,7 +19930,7 @@
         <v>224.9</v>
       </c>
       <c r="E490" t="n">
-        <v>3853.2</v>
+        <v>0.05514823079375199</v>
       </c>
       <c r="F490" t="n">
         <v>64</v>
@@ -19970,7 +19970,7 @@
         <v>1097.5</v>
       </c>
       <c r="E491" t="n">
-        <v>2959.3</v>
+        <v>0.2705334253598896</v>
       </c>
       <c r="F491" t="n">
         <v>0.4</v>
@@ -20010,7 +20010,7 @@
         <v>493.3</v>
       </c>
       <c r="E492" t="n">
-        <v>3537.5</v>
+        <v>0.12238265356753</v>
       </c>
       <c r="F492" t="n">
         <v>25.5</v>
@@ -20050,7 +20050,7 @@
         <v>733.6</v>
       </c>
       <c r="E493" t="n">
-        <v>3281.7</v>
+        <v>0.1827011680322765</v>
       </c>
       <c r="F493" t="n">
         <v>24</v>
@@ -20090,7 +20090,7 @@
         <v>585</v>
       </c>
       <c r="E494" t="n">
-        <v>3413</v>
+        <v>0.1463231615807904</v>
       </c>
       <c r="F494" t="n">
         <v>29.2</v>
@@ -20130,7 +20130,7 @@
         <v>247.9</v>
       </c>
       <c r="E495" t="n">
-        <v>3745.5</v>
+        <v>0.06207742775579707</v>
       </c>
       <c r="F495" t="n">
         <v>5.5</v>
@@ -20170,7 +20170,7 @@
         <v>327.4</v>
       </c>
       <c r="E496" t="n">
-        <v>3656.8</v>
+        <v>0.08217458962903469</v>
       </c>
       <c r="F496" t="n">
         <v>66.40000000000001</v>
@@ -20210,7 +20210,7 @@
         <v>469.3</v>
       </c>
       <c r="E497" t="n">
-        <v>3512.9</v>
+        <v>0.1178494299633369</v>
       </c>
       <c r="F497" t="n">
         <v>22.1</v>
@@ -20250,7 +20250,7 @@
         <v>213.5</v>
       </c>
       <c r="E498" t="n">
-        <v>3766.6</v>
+        <v>0.05364186829476646</v>
       </c>
       <c r="F498" t="n">
         <v>35.4</v>
@@ -20290,7 +20290,7 @@
         <v>409.9</v>
       </c>
       <c r="E499" t="n">
-        <v>3549.7</v>
+        <v>0.1035205576320841</v>
       </c>
       <c r="F499" t="n">
         <v>17.2</v>
@@ -20330,7 +20330,7 @@
         <v>772</v>
       </c>
       <c r="E500" t="n">
-        <v>3180.6</v>
+        <v>0.1953144765470829</v>
       </c>
       <c r="F500" t="n">
         <v>59.9</v>
@@ -20370,7 +20370,7 @@
         <v>113.5</v>
       </c>
       <c r="E501" t="n">
-        <v>3829.7</v>
+        <v>0.0287837289511057</v>
       </c>
       <c r="F501" t="n">
         <v>-11.3</v>
@@ -20410,7 +20410,7 @@
         <v>1263</v>
       </c>
       <c r="E502" t="n">
-        <v>2667</v>
+        <v>0.3213740458015267</v>
       </c>
       <c r="F502" t="n">
         <v>4.1</v>
@@ -20450,7 +20450,7 @@
         <v>927.4</v>
       </c>
       <c r="E503" t="n">
-        <v>2997.9</v>
+        <v>0.2362621965200112</v>
       </c>
       <c r="F503" t="n">
         <v>64.7</v>
@@ -20490,7 +20490,7 @@
         <v>239.9</v>
       </c>
       <c r="E504" t="n">
-        <v>3635.1</v>
+        <v>0.06190967741935484</v>
       </c>
       <c r="F504" t="n">
         <v>10.3</v>
@@ -20530,7 +20530,7 @@
         <v>71.7</v>
       </c>
       <c r="E505" t="n">
-        <v>3782.6</v>
+        <v>0.01860259969384843</v>
       </c>
       <c r="F505" t="n">
         <v>25.5</v>
@@ -20570,7 +20570,7 @@
         <v>597.5</v>
       </c>
       <c r="E506" t="n">
-        <v>3247.6</v>
+        <v>0.1553925775662532</v>
       </c>
       <c r="F506" t="n">
         <v>26.2</v>
@@ -20610,7 +20610,7 @@
         <v>199</v>
       </c>
       <c r="E507" t="n">
-        <v>3634</v>
+        <v>0.05191755804852596</v>
       </c>
       <c r="F507" t="n">
         <v>25.9</v>
@@ -20650,7 +20650,7 @@
         <v>49</v>
       </c>
       <c r="E508" t="n">
-        <v>3779</v>
+        <v>0.01280041797283177</v>
       </c>
       <c r="F508" t="n">
         <v>0.9</v>
@@ -20690,7 +20690,7 @@
         <v>209.9</v>
       </c>
       <c r="E509" t="n">
-        <v>3600.4</v>
+        <v>0.05508752591659449</v>
       </c>
       <c r="F509" t="n">
         <v>31.1</v>
@@ -20730,7 +20730,7 @@
         <v>203.2</v>
       </c>
       <c r="E510" t="n">
-        <v>3602.4</v>
+        <v>0.05339499684675215</v>
       </c>
       <c r="F510" t="n">
         <v>21</v>
@@ -20770,7 +20770,7 @@
         <v>618.7</v>
       </c>
       <c r="E511" t="n">
-        <v>3185.1</v>
+        <v>0.1626531363373469</v>
       </c>
       <c r="F511" t="n">
         <v>6</v>
@@ -20810,7 +20810,7 @@
         <v>81.2</v>
       </c>
       <c r="E512" t="n">
-        <v>3690</v>
+        <v>0.02153160797624099</v>
       </c>
       <c r="F512" t="n">
         <v>109.7</v>
@@ -20848,7 +20848,7 @@
         <v>468.5</v>
       </c>
       <c r="E513" t="n">
-        <v>3300.8</v>
+        <v>0.1242936354230228</v>
       </c>
       <c r="F513" t="n">
         <v>57.2</v>
@@ -20888,7 +20888,7 @@
         <v>688.5</v>
       </c>
       <c r="E514" t="n">
-        <v>3070.3</v>
+        <v>0.1831701606895818</v>
       </c>
       <c r="F514" t="n">
         <v>32</v>
@@ -20928,7 +20928,7 @@
         <v>481.7</v>
       </c>
       <c r="E515" t="n">
-        <v>3276.4</v>
+        <v>0.1281764721534818</v>
       </c>
       <c r="F515" t="n">
         <v>41.3</v>
@@ -20968,7 +20968,7 @@
         <v>396.9</v>
       </c>
       <c r="E516" t="n">
-        <v>3349</v>
+        <v>0.1059558450572626</v>
       </c>
       <c r="F516" t="n">
         <v>23</v>
@@ -21008,7 +21008,7 @@
         <v>550.5</v>
       </c>
       <c r="E517" t="n">
-        <v>3186.7</v>
+        <v>0.147302793535267</v>
       </c>
       <c r="F517" t="n">
         <v>50.4</v>
@@ -21048,7 +21048,7 @@
         <v>769</v>
       </c>
       <c r="E518" t="n">
-        <v>2948.9</v>
+        <v>0.2068371930390812</v>
       </c>
       <c r="F518" t="n">
         <v>20.5</v>
@@ -21088,7 +21088,7 @@
         <v>1014.6</v>
       </c>
       <c r="E519" t="n">
-        <v>2688.3</v>
+        <v>0.2740014583164547</v>
       </c>
       <c r="F519" t="n">
         <v>18.6</v>
@@ -21126,7 +21126,7 @@
         <v>474</v>
       </c>
       <c r="E520" t="n">
-        <v>3215.5</v>
+        <v>0.128472692776799</v>
       </c>
       <c r="F520" t="n">
         <v>52.2</v>
@@ -21166,7 +21166,7 @@
         <v>200.8</v>
       </c>
       <c r="E521" t="n">
-        <v>3479.7</v>
+        <v>0.05455780464610787</v>
       </c>
       <c r="F521" t="n">
         <v>11.6</v>
@@ -21206,7 +21206,7 @@
         <v>317.8</v>
       </c>
       <c r="E522" t="n">
-        <v>3353.1</v>
+        <v>0.08657277506878422</v>
       </c>
       <c r="F522" t="n">
         <v>-3.2</v>
@@ -21246,7 +21246,7 @@
         <v>659</v>
       </c>
       <c r="E523" t="n">
-        <v>3010</v>
+        <v>0.1796129735622785</v>
       </c>
       <c r="F523" t="n">
         <v>7.4</v>
@@ -21286,7 +21286,7 @@
         <v>307</v>
       </c>
       <c r="E524" t="n">
-        <v>3357</v>
+        <v>0.08378820960698689</v>
       </c>
       <c r="F524" t="n">
         <v>30.9</v>
@@ -21326,7 +21326,7 @@
         <v>64.09999999999999</v>
       </c>
       <c r="E525" t="n">
-        <v>3596.7</v>
+        <v>0.01750983391608391</v>
       </c>
       <c r="F525" t="n">
         <v>-6.6</v>
@@ -21366,7 +21366,7 @@
         <v>492.7</v>
       </c>
       <c r="E526" t="n">
-        <v>3166.4</v>
+        <v>0.1346505971413736</v>
       </c>
       <c r="F526" t="n">
         <v>16.2</v>
@@ -21406,7 +21406,7 @@
         <v>281.9</v>
       </c>
       <c r="E527" t="n">
-        <v>3347.9</v>
+        <v>0.07766268113945671</v>
       </c>
       <c r="F527" t="n">
         <v>54.1</v>
@@ -21446,7 +21446,7 @@
         <v>500.2</v>
       </c>
       <c r="E528" t="n">
-        <v>3120.5</v>
+        <v>0.1381500814759577</v>
       </c>
       <c r="F528" t="n">
         <v>2.5</v>
@@ -21486,7 +21486,7 @@
         <v>98</v>
       </c>
       <c r="E529" t="n">
-        <v>3521.9</v>
+        <v>0.02707257106549905</v>
       </c>
       <c r="F529" t="n">
         <v>8.699999999999999</v>
@@ -21526,7 +21526,7 @@
         <v>111.9</v>
       </c>
       <c r="E530" t="n">
-        <v>3445.5</v>
+        <v>0.03145555742958341</v>
       </c>
       <c r="F530" t="n">
         <v>6.5</v>
@@ -21566,7 +21566,7 @@
         <v>125.9</v>
       </c>
       <c r="E531" t="n">
-        <v>3415.2</v>
+        <v>0.03555392392194516</v>
       </c>
       <c r="F531" t="n">
         <v>-5</v>
@@ -21606,7 +21606,7 @@
         <v>391</v>
       </c>
       <c r="E532" t="n">
-        <v>3149.2</v>
+        <v>0.1104457375289532</v>
       </c>
       <c r="F532" t="n">
         <v>21.1</v>
@@ -21646,7 +21646,7 @@
         <v>487.1</v>
       </c>
       <c r="E533" t="n">
-        <v>3051.8</v>
+        <v>0.137641640057645</v>
       </c>
       <c r="F533" t="n">
         <v>22.2</v>
@@ -21686,7 +21686,7 @@
         <v>195.6</v>
       </c>
       <c r="E534" t="n">
-        <v>3306</v>
+        <v>0.05586017820424949</v>
       </c>
       <c r="F534" t="n">
         <v>20.9</v>
@@ -21726,7 +21726,7 @@
         <v>68.90000000000001</v>
       </c>
       <c r="E535" t="n">
-        <v>3429.3</v>
+        <v>0.01969584357669659</v>
       </c>
       <c r="F535" t="n">
         <v>49.8</v>
@@ -21766,7 +21766,7 @@
         <v>115.6</v>
       </c>
       <c r="E536" t="n">
-        <v>3382</v>
+        <v>0.03305123513266239</v>
       </c>
       <c r="F536" t="n">
         <v>0.2</v>
@@ -21806,7 +21806,7 @@
         <v>529</v>
       </c>
       <c r="E537" t="n">
-        <v>2965.8</v>
+        <v>0.1513677463660295</v>
       </c>
       <c r="F537" t="n">
         <v>2</v>
@@ -21846,7 +21846,7 @@
         <v>339.7</v>
       </c>
       <c r="E538" t="n">
-        <v>3146.7</v>
+        <v>0.09743575034419458</v>
       </c>
       <c r="F538" t="n">
         <v>15.3</v>
@@ -21886,7 +21886,7 @@
         <v>324</v>
       </c>
       <c r="E539" t="n">
-        <v>3162.2</v>
+        <v>0.09293786931329241</v>
       </c>
       <c r="F539" t="n">
         <v>28.3</v>
@@ -21926,7 +21926,7 @@
         <v>238.4</v>
       </c>
       <c r="E540" t="n">
-        <v>3237.3</v>
+        <v>0.06859049975544496</v>
       </c>
       <c r="F540" t="n">
         <v>28.5</v>
@@ -21966,7 +21966,7 @@
         <v>245.3</v>
       </c>
       <c r="E541" t="n">
-        <v>3218.6</v>
+        <v>0.07081613210543029</v>
       </c>
       <c r="F541" t="n">
         <v>44.4</v>
@@ -22006,7 +22006,7 @@
         <v>651.6</v>
       </c>
       <c r="E542" t="n">
-        <v>2809.6</v>
+        <v>0.1882584074887322</v>
       </c>
       <c r="F542" t="n">
         <v>8.199999999999999</v>
@@ -22046,7 +22046,7 @@
         <v>306.3</v>
       </c>
       <c r="E543" t="n">
-        <v>3154.7</v>
+        <v>0.08850043340075123</v>
       </c>
       <c r="F543" t="n">
         <v>4</v>
@@ -22086,7 +22086,7 @@
         <v>903</v>
       </c>
       <c r="E544" t="n">
-        <v>2558</v>
+        <v>0.2609072522392372</v>
       </c>
       <c r="F544" t="n">
         <v>2.9</v>
@@ -22126,7 +22126,7 @@
         <v>717</v>
       </c>
       <c r="E545" t="n">
-        <v>2737</v>
+        <v>0.2075854082223509</v>
       </c>
       <c r="F545" t="n">
         <v>-7.3</v>
@@ -22166,7 +22166,7 @@
         <v>1158</v>
       </c>
       <c r="E546" t="n">
-        <v>2291</v>
+        <v>0.3357494926065526</v>
       </c>
       <c r="F546" t="n">
         <v>135.2</v>
@@ -22204,7 +22204,7 @@
         <v>283.2</v>
       </c>
       <c r="E547" t="n">
-        <v>3150.3</v>
+        <v>0.08248143294014854</v>
       </c>
       <c r="F547" t="n">
         <v>41.5</v>
@@ -22244,7 +22244,7 @@
         <v>1953.3</v>
       </c>
       <c r="E548" t="n">
-        <v>1462.5</v>
+        <v>0.5718426137361672</v>
       </c>
       <c r="F548" t="n">
         <v>17.2</v>
@@ -22284,7 +22284,7 @@
         <v>435.4</v>
       </c>
       <c r="E549" t="n">
-        <v>2972.6</v>
+        <v>0.1277582159624413</v>
       </c>
       <c r="F549" t="n">
         <v>16</v>
@@ -22324,7 +22324,7 @@
         <v>665.6</v>
       </c>
       <c r="E550" t="n">
-        <v>2741.9</v>
+        <v>0.1953338224504769</v>
       </c>
       <c r="F550" t="n">
         <v>20.8</v>
@@ -22364,7 +22364,7 @@
         <v>403.8</v>
       </c>
       <c r="E551" t="n">
-        <v>2975.4</v>
+        <v>0.1194957386363636</v>
       </c>
       <c r="F551" t="n">
         <v>15.6</v>
@@ -22404,7 +22404,7 @@
         <v>588.9</v>
       </c>
       <c r="E552" t="n">
-        <v>2783.9</v>
+        <v>0.1746027039848197</v>
       </c>
       <c r="F552" t="n">
         <v>9.199999999999999</v>
@@ -22444,7 +22444,7 @@
         <v>138.9</v>
       </c>
       <c r="E553" t="n">
-        <v>3230</v>
+        <v>0.0412300750986969</v>
       </c>
       <c r="F553" t="n">
         <v>-0.6</v>
@@ -22484,7 +22484,7 @@
         <v>363.8</v>
       </c>
       <c r="E554" t="n">
-        <v>2998.9</v>
+        <v>0.1081868736432034</v>
       </c>
       <c r="F554" t="n">
         <v>56.2</v>
@@ -22524,7 +22524,7 @@
         <v>21.7</v>
       </c>
       <c r="E555" t="n">
-        <v>3328.8</v>
+        <v>0.006476645276824355</v>
       </c>
       <c r="F555" t="n">
         <v>87.09999999999999</v>
@@ -22562,7 +22562,7 @@
         <v>1454</v>
       </c>
       <c r="E556" t="n">
-        <v>1890</v>
+        <v>0.4348086124401914</v>
       </c>
       <c r="F556" t="n">
         <v>22.4</v>
@@ -22602,7 +22602,7 @@
         <v>606.8</v>
       </c>
       <c r="E557" t="n">
-        <v>2735.4</v>
+        <v>0.1815570582251212</v>
       </c>
       <c r="F557" t="n">
         <v>28.8</v>
@@ -22642,7 +22642,7 @@
         <v>131.6</v>
       </c>
       <c r="E558" t="n">
-        <v>3206.2</v>
+        <v>0.03942716759542213</v>
       </c>
       <c r="F558" t="n">
         <v>8.4</v>
@@ -22682,7 +22682,7 @@
         <v>123.7</v>
       </c>
       <c r="E559" t="n">
-        <v>3204.3</v>
+        <v>0.03716947115384615</v>
       </c>
       <c r="F559" t="n">
         <v>6.4</v>
@@ -22722,7 +22722,7 @@
         <v>740.1</v>
       </c>
       <c r="E560" t="n">
-        <v>2567</v>
+        <v>0.2237912370354692</v>
       </c>
       <c r="F560" t="n">
         <v>44.7</v>
@@ -22762,7 +22762,7 @@
         <v>323.2</v>
       </c>
       <c r="E561" t="n">
-        <v>2982.6</v>
+        <v>0.09776756004597978</v>
       </c>
       <c r="F561" t="n">
         <v>44.5</v>
@@ -22802,7 +22802,7 @@
         <v>151.7</v>
       </c>
       <c r="E562" t="n">
-        <v>3152</v>
+        <v>0.04591821291279474</v>
       </c>
       <c r="F562" t="n">
         <v>22.6</v>
@@ -22842,7 +22842,7 @@
         <v>105.6</v>
       </c>
       <c r="E563" t="n">
-        <v>3193.2</v>
+        <v>0.03201164059658057</v>
       </c>
       <c r="F563" t="n">
         <v>1.8</v>
@@ -22882,7 +22882,7 @@
         <v>161.4</v>
       </c>
       <c r="E564" t="n">
-        <v>3116.6</v>
+        <v>0.04923733984136669</v>
       </c>
       <c r="F564" t="n">
         <v>17.5</v>
@@ -22922,7 +22922,7 @@
         <v>488.5</v>
       </c>
       <c r="E565" t="n">
-        <v>2762.3</v>
+        <v>0.150270702596284</v>
       </c>
       <c r="F565" t="n">
         <v>29.3</v>
@@ -22962,7 +22962,7 @@
         <v>213.8</v>
       </c>
       <c r="E566" t="n">
-        <v>3030.3</v>
+        <v>0.06590425695878672</v>
       </c>
       <c r="F566" t="n">
         <v>51.8</v>
@@ -23002,7 +23002,7 @@
         <v>216.9</v>
       </c>
       <c r="E567" t="n">
-        <v>3026.3</v>
+        <v>0.0668783917118895</v>
       </c>
       <c r="F567" t="n">
         <v>1.6</v>
@@ -23042,7 +23042,7 @@
         <v>298</v>
       </c>
       <c r="E568" t="n">
-        <v>2942.5</v>
+        <v>0.09196111711155686</v>
       </c>
       <c r="F568" t="n">
         <v>29.5</v>
@@ -23082,7 +23082,7 @@
         <v>144.8</v>
       </c>
       <c r="E569" t="n">
-        <v>3091.1</v>
+        <v>0.0447479835594425</v>
       </c>
       <c r="F569" t="n">
         <v>-0.3</v>
@@ -23122,7 +23122,7 @@
         <v>276.5</v>
       </c>
       <c r="E570" t="n">
-        <v>2957.7</v>
+        <v>0.08549254838909159</v>
       </c>
       <c r="F570" t="n">
         <v>21.8</v>
@@ -23162,7 +23162,7 @@
         <v>999</v>
       </c>
       <c r="E571" t="n">
-        <v>2235</v>
+        <v>0.3089053803339518</v>
       </c>
       <c r="F571" t="n">
         <v>-4.6</v>
@@ -23202,7 +23202,7 @@
         <v>244.1</v>
       </c>
       <c r="E572" t="n">
-        <v>2983.1</v>
+        <v>0.07563832424392662</v>
       </c>
       <c r="F572" t="n">
         <v>10.2</v>
@@ -23242,7 +23242,7 @@
         <v>307.5</v>
       </c>
       <c r="E573" t="n">
-        <v>2909.7</v>
+        <v>0.09558000745990303</v>
       </c>
       <c r="F573" t="n">
         <v>-0.6</v>
@@ -23282,7 +23282,7 @@
         <v>744.8</v>
       </c>
       <c r="E574" t="n">
-        <v>2470.6</v>
+        <v>0.2316352553337065</v>
       </c>
       <c r="F574" t="n">
         <v>18.8</v>
@@ -23322,7 +23322,7 @@
         <v>232.8</v>
       </c>
       <c r="E575" t="n">
-        <v>2980.7</v>
+        <v>0.07244437529173799</v>
       </c>
       <c r="F575" t="n">
         <v>7.3</v>
@@ -23362,7 +23362,7 @@
         <v>474.5</v>
       </c>
       <c r="E576" t="n">
-        <v>2722.3</v>
+        <v>0.1484296796796797</v>
       </c>
       <c r="F576" t="n">
         <v>8.1</v>
@@ -23402,7 +23402,7 @@
         <v>352.1</v>
       </c>
       <c r="E577" t="n">
-        <v>2833.9</v>
+        <v>0.1105147520401758</v>
       </c>
       <c r="F577" t="n">
         <v>10.3</v>
@@ -23442,7 +23442,7 @@
         <v>723.8</v>
       </c>
       <c r="E578" t="n">
-        <v>2447.6</v>
+        <v>0.2282272813268588</v>
       </c>
       <c r="F578" t="n">
         <v>3.7</v>
@@ -23482,7 +23482,7 @@
         <v>1387.1</v>
       </c>
       <c r="E579" t="n">
-        <v>1757.9</v>
+        <v>0.4410492845786963</v>
       </c>
       <c r="F579" t="n">
         <v>15.8</v>
@@ -23522,7 +23522,7 @@
         <v>48.6</v>
       </c>
       <c r="E580" t="n">
-        <v>3081.9</v>
+        <v>0.01552467656923814</v>
       </c>
       <c r="F580" t="n">
         <v>-2.1</v>
@@ -23562,7 +23562,7 @@
         <v>354.1</v>
       </c>
       <c r="E581" t="n">
-        <v>2772.3</v>
+        <v>0.1132612589559877</v>
       </c>
       <c r="F581" t="n">
         <v>25</v>
@@ -23602,7 +23602,7 @@
         <v>62.3</v>
       </c>
       <c r="E582" t="n">
-        <v>3017.3</v>
+        <v>0.0202298999870113</v>
       </c>
       <c r="F582" t="n">
         <v>-1.8</v>
@@ -23642,7 +23642,7 @@
         <v>250.6</v>
       </c>
       <c r="E583" t="n">
-        <v>2827</v>
+        <v>0.08142708604107096</v>
       </c>
       <c r="F583" t="n">
         <v>9.300000000000001</v>
@@ -23682,7 +23682,7 @@
         <v>173</v>
       </c>
       <c r="E584" t="n">
-        <v>2902.7</v>
+        <v>0.05624735832493417</v>
       </c>
       <c r="F584" t="n">
         <v>9.4</v>
@@ -23722,7 +23722,7 @@
         <v>143.3</v>
       </c>
       <c r="E585" t="n">
-        <v>2930.3</v>
+        <v>0.04662285268089537</v>
       </c>
       <c r="F585" t="n">
         <v>7.6</v>
@@ -23762,7 +23762,7 @@
         <v>587.1</v>
       </c>
       <c r="E586" t="n">
-        <v>2464.3</v>
+        <v>0.1924034869240349</v>
       </c>
       <c r="F586" t="n">
         <v>16.8</v>
@@ -23802,7 +23802,7 @@
         <v>429.6</v>
       </c>
       <c r="E587" t="n">
-        <v>2620.5</v>
+        <v>0.1408478410543917</v>
       </c>
       <c r="F587" t="n">
         <v>28.8</v>
@@ -23842,7 +23842,7 @@
         <v>1168</v>
       </c>
       <c r="E588" t="n">
-        <v>1856</v>
+        <v>0.3862433862433862</v>
       </c>
       <c r="F588" t="n">
         <v>-2.3</v>
@@ -23882,7 +23882,7 @@
         <v>666.2</v>
       </c>
       <c r="E589" t="n">
-        <v>2332.4</v>
+        <v>0.2221703461615421</v>
       </c>
       <c r="F589" t="n">
         <v>7.7</v>
@@ -23922,7 +23922,7 @@
         <v>189.6</v>
       </c>
       <c r="E590" t="n">
-        <v>2808.5</v>
+        <v>0.0632400520329542</v>
       </c>
       <c r="F590" t="n">
         <v>-24.4</v>
@@ -23962,7 +23962,7 @@
         <v>477</v>
       </c>
       <c r="E591" t="n">
-        <v>2514.1</v>
+        <v>0.1594731035405035</v>
       </c>
       <c r="F591" t="n">
         <v>1.8</v>
@@ -24002,7 +24002,7 @@
         <v>413</v>
       </c>
       <c r="E592" t="n">
-        <v>2577.7</v>
+        <v>0.138094760423981</v>
       </c>
       <c r="F592" t="n">
         <v>10.6</v>
@@ -24042,7 +24042,7 @@
         <v>696</v>
       </c>
       <c r="E593" t="n">
-        <v>2292.2</v>
+        <v>0.2329161368047654</v>
       </c>
       <c r="F593" t="n">
         <v>11.4</v>
@@ -24082,7 +24082,7 @@
         <v>277.7</v>
       </c>
       <c r="E594" t="n">
-        <v>2705.6</v>
+        <v>0.09308483893674789</v>
       </c>
       <c r="F594" t="n">
         <v>24.8</v>
@@ -24122,7 +24122,7 @@
         <v>420</v>
       </c>
       <c r="E595" t="n">
-        <v>2561</v>
+        <v>0.1408923180140892</v>
       </c>
       <c r="F595" t="n">
         <v>26.7</v>
@@ -24162,7 +24162,7 @@
         <v>143.4</v>
       </c>
       <c r="E596" t="n">
-        <v>2834.5</v>
+        <v>0.04815473991739145</v>
       </c>
       <c r="F596" t="n">
         <v>-3.6</v>
@@ -24202,7 +24202,7 @@
         <v>98.40000000000001</v>
       </c>
       <c r="E597" t="n">
-        <v>2871.9</v>
+        <v>0.03312796687203313</v>
       </c>
       <c r="F597" t="n">
         <v>-39.9</v>
@@ -24242,7 +24242,7 @@
         <v>1129</v>
       </c>
       <c r="E598" t="n">
-        <v>1841</v>
+        <v>0.3801346801346802</v>
       </c>
       <c r="F598" t="n">
         <v>1</v>
@@ -24282,7 +24282,7 @@
         <v>551.4</v>
       </c>
       <c r="E599" t="n">
-        <v>2398.2</v>
+        <v>0.1869406021155411</v>
       </c>
       <c r="F599" t="n">
         <v>26.6</v>
@@ -24322,7 +24322,7 @@
         <v>840.9</v>
       </c>
       <c r="E600" t="n">
-        <v>2107.1</v>
+        <v>0.2852442333785618</v>
       </c>
       <c r="F600" t="n">
         <v>27.2</v>
@@ -24362,7 +24362,7 @@
         <v>308</v>
       </c>
       <c r="E601" t="n">
-        <v>2630</v>
+        <v>0.1048332198774677</v>
       </c>
       <c r="F601" t="n">
         <v>18.5</v>
@@ -24402,7 +24402,7 @@
         <v>587.9</v>
       </c>
       <c r="E602" t="n">
-        <v>2340.1</v>
+        <v>0.200785519125683</v>
       </c>
       <c r="F602" t="n">
         <v>65.90000000000001</v>
@@ -24440,7 +24440,7 @@
         <v>468.7</v>
       </c>
       <c r="E603" t="n">
-        <v>2454.7</v>
+        <v>0.1603270164876514</v>
       </c>
       <c r="F603" t="n">
         <v>7.8</v>
@@ -24480,7 +24480,7 @@
         <v>4245.9</v>
       </c>
       <c r="E604" t="n">
-        <v>-1323.4</v>
+        <v>1.452831479897348</v>
       </c>
       <c r="F604" t="n">
         <v>14.8</v>
@@ -24520,7 +24520,7 @@
         <v>2944.7</v>
       </c>
       <c r="E605" t="n">
-        <v>-22.19999999999982</v>
+        <v>1.00759623609923</v>
       </c>
       <c r="F605" t="n">
         <v>20.2</v>
@@ -24560,7 +24560,7 @@
         <v>340.5</v>
       </c>
       <c r="E606" t="n">
-        <v>2581.9</v>
+        <v>0.1165138242540378</v>
       </c>
       <c r="F606" t="n">
         <v>28.1</v>
@@ -24600,7 +24600,7 @@
         <v>750.7</v>
       </c>
       <c r="E607" t="n">
-        <v>2155.7</v>
+        <v>0.2582920451417561</v>
       </c>
       <c r="F607" t="n">
         <v>52.6</v>
@@ -24640,7 +24640,7 @@
         <v>69.90000000000001</v>
       </c>
       <c r="E608" t="n">
-        <v>2822.7</v>
+        <v>0.02416511097282722</v>
       </c>
       <c r="F608" t="n">
         <v>11.7</v>
@@ -24680,7 +24680,7 @@
         <v>505.2</v>
       </c>
       <c r="E609" t="n">
-        <v>2383.4</v>
+        <v>0.1748944125181749</v>
       </c>
       <c r="F609" t="n">
         <v>4.4</v>
@@ -24720,7 +24720,7 @@
         <v>916.3</v>
       </c>
       <c r="E610" t="n">
-        <v>1960.9</v>
+        <v>0.318469345196719</v>
       </c>
       <c r="F610" t="n">
         <v>3.8</v>
@@ -24760,7 +24760,7 @@
         <v>982</v>
       </c>
       <c r="E611" t="n">
-        <v>1888.1</v>
+        <v>0.3421483572000976</v>
       </c>
       <c r="F611" t="n">
         <v>18.2</v>
@@ -24800,7 +24800,7 @@
         <v>286.9</v>
       </c>
       <c r="E612" t="n">
-        <v>2567</v>
+        <v>0.1005291005291005</v>
       </c>
       <c r="F612" t="n">
         <v>10.5</v>
@@ -24840,7 +24840,7 @@
         <v>157.2</v>
       </c>
       <c r="E613" t="n">
-        <v>2694.8</v>
+        <v>0.05511921458625525</v>
       </c>
       <c r="F613" t="n">
         <v>-1.1</v>
@@ -24880,7 +24880,7 @@
         <v>246.2</v>
       </c>
       <c r="E614" t="n">
-        <v>2604.2</v>
+        <v>0.08637384226775188</v>
       </c>
       <c r="F614" t="n">
         <v>10.5</v>
@@ -24920,7 +24920,7 @@
         <v>278.8</v>
       </c>
       <c r="E615" t="n">
-        <v>2569.6</v>
+        <v>0.09787951130459205</v>
       </c>
       <c r="F615" t="n">
         <v>45.2</v>
@@ -24960,7 +24960,7 @@
         <v>839.5</v>
       </c>
       <c r="E616" t="n">
-        <v>1994.2</v>
+        <v>0.2962557786639377</v>
       </c>
       <c r="F616" t="n">
         <v>18.6</v>
@@ -25000,7 +25000,7 @@
         <v>661.8</v>
       </c>
       <c r="E617" t="n">
-        <v>2169.8</v>
+        <v>0.2337194518999859</v>
       </c>
       <c r="F617" t="n">
         <v>31.9</v>
@@ -25040,7 +25040,7 @@
         <v>476.9</v>
       </c>
       <c r="E618" t="n">
-        <v>2334.6</v>
+        <v>0.1696247554686111</v>
       </c>
       <c r="F618" t="n">
         <v>-13.2</v>
@@ -25080,7 +25080,7 @@
         <v>485.4</v>
       </c>
       <c r="E619" t="n">
-        <v>2324.2</v>
+        <v>0.1727648063781321</v>
       </c>
       <c r="F619" t="n">
         <v>10.7</v>
@@ -25120,7 +25120,7 @@
         <v>692.8</v>
       </c>
       <c r="E620" t="n">
-        <v>2093.1</v>
+        <v>0.2486808571736243</v>
       </c>
       <c r="F620" t="n">
         <v>17.8</v>
@@ -25160,7 +25160,7 @@
         <v>607.8</v>
       </c>
       <c r="E621" t="n">
-        <v>2175.1</v>
+        <v>0.2184052606992705</v>
       </c>
       <c r="F621" t="n">
         <v>18.7</v>
@@ -25200,7 +25200,7 @@
         <v>235</v>
       </c>
       <c r="E622" t="n">
-        <v>2541.2</v>
+        <v>0.0846480801095022</v>
       </c>
       <c r="F622" t="n">
         <v>12.8</v>
@@ -25240,7 +25240,7 @@
         <v>389.4</v>
       </c>
       <c r="E623" t="n">
-        <v>2384.4</v>
+        <v>0.1403850313649145</v>
       </c>
       <c r="F623" t="n">
         <v>8.800000000000001</v>
@@ -25280,7 +25280,7 @@
         <v>200.6</v>
       </c>
       <c r="E624" t="n">
-        <v>2565.9</v>
+        <v>0.07251039219230074</v>
       </c>
       <c r="F624" t="n">
         <v>34.6</v>
@@ -25320,7 +25320,7 @@
         <v>316.3</v>
       </c>
       <c r="E625" t="n">
-        <v>2448.7</v>
+        <v>0.1143942133815552</v>
       </c>
       <c r="F625" t="n">
         <v>11.6</v>
@@ -25360,7 +25360,7 @@
         <v>449.4</v>
       </c>
       <c r="E626" t="n">
-        <v>2315.4</v>
+        <v>0.1625434027777778</v>
       </c>
       <c r="F626" t="n">
         <v>17.6</v>
@@ -25400,7 +25400,7 @@
         <v>934.9</v>
       </c>
       <c r="E627" t="n">
-        <v>1829.9</v>
+        <v>0.3381438078703703</v>
       </c>
       <c r="F627" t="n">
         <v>6.2</v>
@@ -25440,7 +25440,7 @@
         <v>99.3</v>
       </c>
       <c r="E628" t="n">
-        <v>2659</v>
+        <v>0.03600043505057463</v>
       </c>
       <c r="F628" t="n">
         <v>-22.1</v>
@@ -25480,7 +25480,7 @@
         <v>259.1</v>
       </c>
       <c r="E629" t="n">
-        <v>2475.3</v>
+        <v>0.09475570509069632</v>
       </c>
       <c r="F629" t="n">
         <v>15.3</v>
@@ -25520,7 +25520,7 @@
         <v>30.5</v>
       </c>
       <c r="E630" t="n">
-        <v>2684.3</v>
+        <v>0.0112347134227199</v>
       </c>
       <c r="F630" t="n">
         <v>36.6</v>
@@ -25560,7 +25560,7 @@
         <v>373.4</v>
       </c>
       <c r="E631" t="n">
-        <v>2336.3</v>
+        <v>0.1378012326087759</v>
       </c>
       <c r="F631" t="n">
         <v>22.2</v>
@@ -25600,7 +25600,7 @@
         <v>147.3</v>
       </c>
       <c r="E632" t="n">
-        <v>2548.4</v>
+        <v>0.05464257892198687</v>
       </c>
       <c r="F632" t="n">
         <v>4.4</v>
@@ -25640,7 +25640,7 @@
         <v>936.5</v>
       </c>
       <c r="E633" t="n">
-        <v>1756</v>
+        <v>0.3478180129990715</v>
       </c>
       <c r="F633" t="n">
         <v>22.1</v>
@@ -25680,7 +25680,7 @@
         <v>194.7</v>
       </c>
       <c r="E634" t="n">
-        <v>2432.8</v>
+        <v>0.07410085632730733</v>
       </c>
       <c r="F634" t="n">
         <v>9.4</v>
@@ -25720,7 +25720,7 @@
         <v>18.5</v>
       </c>
       <c r="E635" t="n">
-        <v>2603.5</v>
+        <v>0.007055682684973303</v>
       </c>
       <c r="F635" t="n">
         <v>123.6</v>
@@ -25758,7 +25758,7 @@
         <v>331.2</v>
       </c>
       <c r="E636" t="n">
-        <v>2272.2</v>
+        <v>0.127218253053699</v>
       </c>
       <c r="F636" t="n">
         <v>10.7</v>
@@ -25798,7 +25798,7 @@
         <v>26.1</v>
       </c>
       <c r="E637" t="n">
-        <v>2570.1</v>
+        <v>0.0100531546105847</v>
       </c>
       <c r="F637" t="n">
         <v>-30.3</v>
@@ -25838,7 +25838,7 @@
         <v>541.4</v>
       </c>
       <c r="E638" t="n">
-        <v>2051.3</v>
+        <v>0.2088170632930922</v>
       </c>
       <c r="F638" t="n">
         <v>103</v>
@@ -25876,7 +25876,7 @@
         <v>308.5</v>
       </c>
       <c r="E639" t="n">
-        <v>2274.5</v>
+        <v>0.1194347657762292</v>
       </c>
       <c r="F639" t="n">
         <v>8.9</v>
@@ -25916,7 +25916,7 @@
         <v>137</v>
       </c>
       <c r="E640" t="n">
-        <v>2417</v>
+        <v>0.05364134690681284</v>
       </c>
       <c r="F640" t="n">
         <v>1.4</v>
@@ -25956,7 +25956,7 @@
         <v>554</v>
       </c>
       <c r="E641" t="n">
-        <v>1998</v>
+        <v>0.2170846394984326</v>
       </c>
       <c r="F641" t="n">
         <v>-33.9</v>
@@ -25996,7 +25996,7 @@
         <v>382.6</v>
       </c>
       <c r="E642" t="n">
-        <v>2163</v>
+        <v>0.1502985543683218</v>
       </c>
       <c r="F642" t="n">
         <v>19.4</v>
@@ -26036,7 +26036,7 @@
         <v>79.2</v>
       </c>
       <c r="E643" t="n">
-        <v>2462.5</v>
+        <v>0.03116024707872684</v>
       </c>
       <c r="F643" t="n">
         <v>5.6</v>
@@ -26076,7 +26076,7 @@
         <v>267.2</v>
       </c>
       <c r="E644" t="n">
-        <v>2238.7</v>
+        <v>0.1066283570772976</v>
       </c>
       <c r="F644" t="n">
         <v>4.8</v>
@@ -26116,7 +26116,7 @@
         <v>85</v>
       </c>
       <c r="E645" t="n">
-        <v>2413.3</v>
+        <v>0.03402313573229796</v>
       </c>
       <c r="F645" t="n">
         <v>11.2</v>
@@ -26156,7 +26156,7 @@
         <v>1332.9</v>
       </c>
       <c r="E646" t="n">
-        <v>1131.1</v>
+        <v>0.5409496753246754</v>
       </c>
       <c r="F646" t="n">
         <v>-4.2</v>
@@ -26196,7 +26196,7 @@
         <v>154.7</v>
       </c>
       <c r="E647" t="n">
-        <v>2293.8</v>
+        <v>0.0631815397181948</v>
       </c>
       <c r="F647" t="n">
         <v>27.1</v>
@@ -26236,7 +26236,7 @@
         <v>350.7</v>
       </c>
       <c r="E648" t="n">
-        <v>2073.6</v>
+        <v>0.144660314317535</v>
       </c>
       <c r="F648" t="n">
         <v>12.2</v>
@@ -26276,7 +26276,7 @@
         <v>277.1</v>
       </c>
       <c r="E649" t="n">
-        <v>2140.8</v>
+        <v>0.1146035816204144</v>
       </c>
       <c r="F649" t="n">
         <v>21.7</v>
@@ -26316,7 +26316,7 @@
         <v>56.7</v>
       </c>
       <c r="E650" t="n">
-        <v>2360.9</v>
+        <v>0.02345301125082727</v>
       </c>
       <c r="F650" t="n">
         <v>-12.5</v>
@@ -26356,7 +26356,7 @@
         <v>90</v>
       </c>
       <c r="E651" t="n">
-        <v>2323</v>
+        <v>0.03729796933278077</v>
       </c>
       <c r="F651" t="n">
         <v>1.3</v>
@@ -26396,7 +26396,7 @@
         <v>565.7</v>
       </c>
       <c r="E652" t="n">
-        <v>1846.7</v>
+        <v>0.2344967667053557</v>
       </c>
       <c r="F652" t="n">
         <v>19</v>
@@ -26436,7 +26436,7 @@
         <v>152.2</v>
       </c>
       <c r="E653" t="n">
-        <v>2257.5</v>
+        <v>0.06316138938457069</v>
       </c>
       <c r="F653" t="n">
         <v>3.3</v>
@@ -26476,7 +26476,7 @@
         <v>1160.5</v>
       </c>
       <c r="E654" t="n">
-        <v>1248.8</v>
+        <v>0.4816751753621383</v>
       </c>
       <c r="F654" t="n">
         <v>2.4</v>
@@ -26516,7 +26516,7 @@
         <v>442</v>
       </c>
       <c r="E655" t="n">
-        <v>1960</v>
+        <v>0.1840133222314738</v>
       </c>
       <c r="F655" t="n">
         <v>15.4</v>
@@ -26556,7 +26556,7 @@
         <v>203.3</v>
       </c>
       <c r="E656" t="n">
-        <v>2196.5</v>
+        <v>0.08471539294941245</v>
       </c>
       <c r="F656" t="n">
         <v>29.5</v>
@@ -26594,7 +26594,7 @@
         <v>244</v>
       </c>
       <c r="E657" t="n">
-        <v>2152</v>
+        <v>0.1018363939899833</v>
       </c>
       <c r="F657" t="n">
         <v>11.7</v>
@@ -26634,7 +26634,7 @@
         <v>571.2</v>
       </c>
       <c r="E658" t="n">
-        <v>1802.4</v>
+        <v>0.2406471183013145</v>
       </c>
       <c r="F658" t="n">
         <v>2.9</v>
@@ -26674,7 +26674,7 @@
         <v>454.4</v>
       </c>
       <c r="E659" t="n">
-        <v>1907.8</v>
+        <v>0.1923630513927695</v>
       </c>
       <c r="F659" t="n">
         <v>11.4</v>
@@ -26714,7 +26714,7 @@
         <v>190.9</v>
       </c>
       <c r="E660" t="n">
-        <v>2165.2</v>
+        <v>0.08102372564831714</v>
       </c>
       <c r="F660" t="n">
         <v>17.2</v>
@@ -26754,7 +26754,7 @@
         <v>137.8</v>
       </c>
       <c r="E661" t="n">
-        <v>2208.2</v>
+        <v>0.0587382779198636</v>
       </c>
       <c r="F661" t="n">
         <v>25.5</v>
@@ -26794,7 +26794,7 @@
         <v>127.2</v>
       </c>
       <c r="E662" t="n">
-        <v>2208.2</v>
+        <v>0.05446604436070909</v>
       </c>
       <c r="F662" t="n">
         <v>24.3</v>
@@ -26834,7 +26834,7 @@
         <v>493.5</v>
       </c>
       <c r="E663" t="n">
-        <v>1835.6</v>
+        <v>0.2118844188742433</v>
       </c>
       <c r="F663" t="n">
         <v>35</v>
@@ -26872,7 +26872,7 @@
         <v>725.7</v>
       </c>
       <c r="E664" t="n">
-        <v>1587.7</v>
+        <v>0.3136941298521657</v>
       </c>
       <c r="F664" t="n">
         <v>66.90000000000001</v>
@@ -26910,7 +26910,7 @@
         <v>918.4</v>
       </c>
       <c r="E665" t="n">
-        <v>1392.9</v>
+        <v>0.3973521394885994</v>
       </c>
       <c r="F665" t="n">
         <v>15.2</v>
@@ -26948,7 +26948,7 @@
         <v>237.6</v>
       </c>
       <c r="E666" t="n">
-        <v>2071.2</v>
+        <v>0.1029106029106029</v>
       </c>
       <c r="F666" t="n">
         <v>10.8</v>
@@ -26988,7 +26988,7 @@
         <v>409.1</v>
       </c>
       <c r="E667" t="n">
-        <v>1889.8</v>
+        <v>0.1779546739745096</v>
       </c>
       <c r="F667" t="n">
         <v>23.6</v>
@@ -27028,7 +27028,7 @@
         <v>1004.3</v>
       </c>
       <c r="E668" t="n">
-        <v>1290.6</v>
+        <v>0.4376225543596671</v>
       </c>
       <c r="F668" t="n">
         <v>-0.3</v>
@@ -27068,7 +27068,7 @@
         <v>253.2</v>
       </c>
       <c r="E669" t="n">
-        <v>2035.5</v>
+        <v>0.1106304889238432</v>
       </c>
       <c r="F669" t="n">
         <v>25.6</v>
@@ -27106,7 +27106,7 @@
         <v>122.7</v>
       </c>
       <c r="E670" t="n">
-        <v>2160.8</v>
+        <v>0.05373330413838406</v>
       </c>
       <c r="F670" t="n">
         <v>19.2</v>
@@ -27146,7 +27146,7 @@
         <v>141</v>
       </c>
       <c r="E671" t="n">
-        <v>2132.1</v>
+        <v>0.06202982710835423</v>
       </c>
       <c r="F671" t="n">
         <v>16.6</v>
@@ -27186,7 +27186,7 @@
         <v>380.2</v>
       </c>
       <c r="E672" t="n">
-        <v>1892.4</v>
+        <v>0.1672973686526446</v>
       </c>
       <c r="F672" t="n">
         <v>62.5</v>
@@ -27224,7 +27224,7 @@
         <v>77.40000000000001</v>
       </c>
       <c r="E673" t="n">
-        <v>2179.2</v>
+        <v>0.03429938846051583</v>
       </c>
       <c r="F673" t="n">
         <v>-4</v>
@@ -27264,7 +27264,7 @@
         <v>35.8</v>
       </c>
       <c r="E674" t="n">
-        <v>2219.5</v>
+        <v>0.0158737196825256</v>
       </c>
       <c r="F674" t="n">
         <v>9.800000000000001</v>
@@ -27304,7 +27304,7 @@
         <v>66.5</v>
       </c>
       <c r="E675" t="n">
-        <v>2185.1</v>
+        <v>0.02953455320660863</v>
       </c>
       <c r="F675" t="n">
         <v>2.9</v>
@@ -27344,7 +27344,7 @@
         <v>208.6</v>
       </c>
       <c r="E676" t="n">
-        <v>2037.2</v>
+        <v>0.09288449550271617</v>
       </c>
       <c r="F676" t="n">
         <v>-10</v>
@@ -27384,7 +27384,7 @@
         <v>271.7</v>
       </c>
       <c r="E677" t="n">
-        <v>1963.8</v>
+        <v>0.121538805636323</v>
       </c>
       <c r="F677" t="n">
         <v>20.5</v>
@@ -27424,7 +27424,7 @@
         <v>115.7</v>
       </c>
       <c r="E678" t="n">
-        <v>2103.9</v>
+        <v>0.05212650928095153</v>
       </c>
       <c r="F678" t="n">
         <v>7.6</v>
@@ -27464,7 +27464,7 @@
         <v>209.1</v>
       </c>
       <c r="E679" t="n">
-        <v>2005</v>
+        <v>0.09444017885371031</v>
       </c>
       <c r="F679" t="n">
         <v>6.9</v>
@@ -27504,7 +27504,7 @@
         <v>143.7</v>
       </c>
       <c r="E680" t="n">
-        <v>2044.3</v>
+        <v>0.06567641681901279</v>
       </c>
       <c r="F680" t="n">
         <v>5.6</v>
@@ -27544,7 +27544,7 @@
         <v>153.7</v>
       </c>
       <c r="E681" t="n">
-        <v>2031.2</v>
+        <v>0.07034646894594718</v>
       </c>
       <c r="F681" t="n">
         <v>17.7</v>
@@ -27584,7 +27584,7 @@
         <v>59.8</v>
       </c>
       <c r="E682" t="n">
-        <v>2124.6</v>
+        <v>0.02737593847280717</v>
       </c>
       <c r="F682" t="n">
         <v>11.7</v>
@@ -27624,7 +27624,7 @@
         <v>117.9</v>
       </c>
       <c r="E683" t="n">
-        <v>2038.7</v>
+        <v>0.0546693869980525</v>
       </c>
       <c r="F683" t="n">
         <v>10.4</v>
@@ -27664,7 +27664,7 @@
         <v>178.9</v>
       </c>
       <c r="E684" t="n">
-        <v>1969</v>
+        <v>0.08329065598957121</v>
       </c>
       <c r="F684" t="n">
         <v>33.2</v>
@@ -27702,7 +27702,7 @@
         <v>122</v>
       </c>
       <c r="E685" t="n">
-        <v>2018.3</v>
+        <v>0.05700135495024061</v>
       </c>
       <c r="F685" t="n">
         <v>0.6</v>
@@ -27742,7 +27742,7 @@
         <v>268.6</v>
       </c>
       <c r="E686" t="n">
-        <v>1870.7</v>
+        <v>0.1255550881129341</v>
       </c>
       <c r="F686" t="n">
         <v>2.9</v>
@@ -27782,7 +27782,7 @@
         <v>39.4</v>
       </c>
       <c r="E687" t="n">
-        <v>2084.6</v>
+        <v>0.01854990583804143</v>
       </c>
       <c r="F687" t="n">
         <v>4</v>
@@ -27820,7 +27820,7 @@
         <v>118.7</v>
       </c>
       <c r="E688" t="n">
-        <v>2003.5</v>
+        <v>0.05593252285364245</v>
       </c>
       <c r="F688" t="n">
         <v>42.5</v>
@@ -27858,7 +27858,7 @@
         <v>295.6</v>
       </c>
       <c r="E689" t="n">
-        <v>1817.2</v>
+        <v>0.1399091253313139</v>
       </c>
       <c r="F689" t="n">
         <v>30.2</v>
